--- a/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
+++ b/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B85DB-BB0D-41A8-BAE5-A55219C33D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412A9C04-93EE-4FB7-B468-69E985DD4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="104">
   <si>
     <t>Equipe</t>
   </si>
@@ -348,12 +348,15 @@
   <si>
     <t>CBFA D2</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -398,6 +401,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -619,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,6 +804,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,7 +1025,7 @@
   </sheetPr>
   <dimension ref="A1:BF988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
@@ -35742,15 +35753,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
@@ -35766,8 +35777,11 @@
       <c r="E1" s="56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>99</v>
       </c>
@@ -35783,47 +35797,51 @@
       <c r="E2" s="56">
         <v>2023</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="60" t="str">
+        <f>CONCATENATE(E2," - ",D2," - ",B2," - vs. ",A2," - ",C2)</f>
+        <v>2023 - CBFA D2 - Rodada 2 - vs. Captains - Fora</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
+++ b/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0B772-CAA9-4B5D-9B6C-64828EAC0D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785420C7-25ED-4047-9151-6FA8378DBB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,6 +762,16 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:BD993"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1017,7 @@
     <col min="24" max="24" width="10.42578125" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" customWidth="1"/>
     <col min="26" max="28" width="12.42578125" customWidth="1"/>
+    <col min="37" max="38" width="12.5703125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,10 +1129,10 @@
       <c r="AJ1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="41" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="30" t="s">
@@ -1231,8 +1242,8 @@
       <c r="AH2" s="36"/>
       <c r="AI2" s="36"/>
       <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
       <c r="AO2" s="37"/>
@@ -1312,8 +1323,8 @@
       <c r="AH3" s="36"/>
       <c r="AI3" s="36"/>
       <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
       <c r="AM3" s="37"/>
       <c r="AN3" s="37"/>
       <c r="AO3" s="37"/>
@@ -1399,8 +1410,8 @@
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
       <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
       <c r="AM4" s="37"/>
       <c r="AN4" s="37"/>
       <c r="AO4" s="37"/>
@@ -1480,8 +1491,8 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="36"/>
       <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
       <c r="AM5" s="37"/>
       <c r="AN5" s="37"/>
       <c r="AO5" s="37"/>
@@ -1567,10 +1578,10 @@
       <c r="AJ6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK6" s="37">
+      <c r="AK6" s="40">
         <v>55</v>
       </c>
-      <c r="AL6" s="37"/>
+      <c r="AL6" s="40"/>
       <c r="AM6" s="37"/>
       <c r="AN6" s="37"/>
       <c r="AO6" s="37"/>
@@ -1644,8 +1655,8 @@
       <c r="AH7" s="36"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
       <c r="AM7" s="37"/>
       <c r="AN7" s="37"/>
       <c r="AO7" s="37"/>
@@ -1727,8 +1738,8 @@
       <c r="AH8" s="36"/>
       <c r="AI8" s="36"/>
       <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
       <c r="AM8" s="37"/>
       <c r="AN8" s="37"/>
       <c r="AO8" s="37"/>
@@ -1814,8 +1825,8 @@
       <c r="AH9" s="36"/>
       <c r="AI9" s="36"/>
       <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
       <c r="AM9" s="37"/>
       <c r="AN9" s="37"/>
       <c r="AO9" s="37"/>
@@ -1899,8 +1910,8 @@
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
       <c r="AM10" s="37"/>
       <c r="AN10" s="37"/>
       <c r="AO10" s="37"/>
@@ -1986,8 +1997,8 @@
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
       <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
       <c r="AM11" s="37"/>
       <c r="AN11" s="37"/>
       <c r="AO11" s="37"/>
@@ -2073,8 +2084,8 @@
       <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
       <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
       <c r="AM12" s="37"/>
       <c r="AN12" s="37"/>
       <c r="AO12" s="37"/>
@@ -2160,8 +2171,8 @@
       <c r="AH13" s="36"/>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
       <c r="AM13" s="37"/>
       <c r="AN13" s="37"/>
       <c r="AO13" s="37"/>
@@ -2237,8 +2248,8 @@
       </c>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
       <c r="AM14" s="37"/>
       <c r="AN14" s="37"/>
       <c r="AO14" s="37"/>
@@ -2312,8 +2323,8 @@
       <c r="AH15" s="36"/>
       <c r="AI15" s="36"/>
       <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
       <c r="AM15" s="37"/>
       <c r="AN15" s="37"/>
       <c r="AO15" s="37"/>
@@ -2393,8 +2404,8 @@
       <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
       <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
       <c r="AM16" s="37"/>
       <c r="AN16" s="37"/>
       <c r="AO16" s="37"/>
@@ -2476,10 +2487,10 @@
       <c r="AJ17" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK17" s="37">
+      <c r="AK17" s="40">
         <v>3</v>
       </c>
-      <c r="AL17" s="37">
+      <c r="AL17" s="40">
         <v>99</v>
       </c>
       <c r="AM17" s="37"/>
@@ -2577,10 +2588,10 @@
       <c r="AJ18" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK18" s="37">
+      <c r="AK18" s="40">
         <v>59</v>
       </c>
-      <c r="AL18" s="37">
+      <c r="AL18" s="40">
         <v>99</v>
       </c>
       <c r="AM18" s="37"/>
@@ -2662,8 +2673,8 @@
       <c r="AH19" s="36"/>
       <c r="AI19" s="36"/>
       <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
       <c r="AM19" s="37"/>
       <c r="AN19" s="37"/>
       <c r="AO19" s="37"/>
@@ -2747,8 +2758,8 @@
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
       <c r="AM20" s="37"/>
       <c r="AN20" s="37"/>
       <c r="AO20" s="37"/>
@@ -2830,10 +2841,10 @@
       <c r="AJ21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK21" s="37">
+      <c r="AK21" s="40">
         <v>97</v>
       </c>
-      <c r="AL21" s="37"/>
+      <c r="AL21" s="40"/>
       <c r="AM21" s="37"/>
       <c r="AN21" s="37"/>
       <c r="AO21" s="37"/>
@@ -2913,10 +2924,10 @@
       <c r="AJ22" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK22" s="37">
+      <c r="AK22" s="40">
         <v>97</v>
       </c>
-      <c r="AL22" s="37">
+      <c r="AL22" s="40">
         <v>55</v>
       </c>
       <c r="AM22" s="37"/>
@@ -2996,8 +3007,8 @@
       <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
       <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
       <c r="AM23" s="37"/>
       <c r="AN23" s="37"/>
       <c r="AO23" s="37"/>
@@ -3081,8 +3092,8 @@
       <c r="AH24" s="36"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
       <c r="AM24" s="37"/>
       <c r="AN24" s="37"/>
       <c r="AO24" s="37"/>
@@ -3166,8 +3177,8 @@
       <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
       <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
       <c r="AM25" s="37"/>
       <c r="AN25" s="37"/>
       <c r="AO25" s="37"/>
@@ -3253,8 +3264,8 @@
       <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
       <c r="AM26" s="37"/>
       <c r="AN26" s="37"/>
       <c r="AO26" s="37"/>
@@ -3340,8 +3351,8 @@
       <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
       <c r="AM27" s="37"/>
       <c r="AN27" s="37"/>
       <c r="AO27" s="37"/>
@@ -3417,8 +3428,8 @@
       </c>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
       <c r="AM28" s="37"/>
       <c r="AN28" s="37"/>
       <c r="AO28" s="37"/>
@@ -3492,8 +3503,8 @@
       <c r="AH29" s="36"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
       <c r="AM29" s="37"/>
       <c r="AN29" s="37"/>
       <c r="AO29" s="37"/>
@@ -3573,8 +3584,8 @@
       <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
       <c r="AM30" s="37"/>
       <c r="AN30" s="37"/>
       <c r="AO30" s="37"/>
@@ -3658,8 +3669,8 @@
       <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
       <c r="AM31" s="37"/>
       <c r="AN31" s="37"/>
       <c r="AO31" s="37"/>
@@ -3747,8 +3758,8 @@
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
       <c r="AM32" s="37"/>
       <c r="AN32" s="37"/>
       <c r="AO32" s="37"/>
@@ -3838,8 +3849,8 @@
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="40"/>
       <c r="AM33" s="37"/>
       <c r="AN33" s="37"/>
       <c r="AO33" s="37"/>
@@ -3919,8 +3930,8 @@
       <c r="AH34" s="36"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
       <c r="AM34" s="37"/>
       <c r="AN34" s="37"/>
       <c r="AO34" s="37"/>
@@ -4004,8 +4015,8 @@
       <c r="AH35" s="36"/>
       <c r="AI35" s="36"/>
       <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="40"/>
       <c r="AM35" s="37"/>
       <c r="AN35" s="37"/>
       <c r="AO35" s="37"/>
@@ -4093,10 +4104,10 @@
       <c r="AJ36" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AK36" s="37">
+      <c r="AK36" s="40">
         <v>29</v>
       </c>
-      <c r="AL36" s="37"/>
+      <c r="AL36" s="40"/>
       <c r="AM36" s="37"/>
       <c r="AN36" s="37"/>
       <c r="AO36" s="37"/>
@@ -4180,8 +4191,8 @@
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
       <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
+      <c r="AK37" s="40"/>
+      <c r="AL37" s="40"/>
       <c r="AM37" s="37"/>
       <c r="AN37" s="37"/>
       <c r="AO37" s="37"/>
@@ -4263,8 +4274,8 @@
       <c r="AH38" s="36"/>
       <c r="AI38" s="36"/>
       <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="40"/>
       <c r="AM38" s="37"/>
       <c r="AN38" s="37"/>
       <c r="AO38" s="37"/>
@@ -4344,8 +4355,8 @@
       <c r="AH39" s="36"/>
       <c r="AI39" s="36"/>
       <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="40"/>
       <c r="AM39" s="37"/>
       <c r="AN39" s="37"/>
       <c r="AO39" s="37"/>
@@ -4431,8 +4442,8 @@
       <c r="AH40" s="36"/>
       <c r="AI40" s="36"/>
       <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
       <c r="AM40" s="37"/>
       <c r="AN40" s="37"/>
       <c r="AO40" s="37"/>
@@ -4518,8 +4529,8 @@
       <c r="AH41" s="36"/>
       <c r="AI41" s="36"/>
       <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
+      <c r="AK41" s="40"/>
+      <c r="AL41" s="40"/>
       <c r="AM41" s="37"/>
       <c r="AN41" s="37"/>
       <c r="AO41" s="37"/>
@@ -4599,8 +4610,8 @@
       <c r="AH42" s="36"/>
       <c r="AI42" s="36"/>
       <c r="AJ42" s="37"/>
-      <c r="AK42" s="37"/>
-      <c r="AL42" s="37"/>
+      <c r="AK42" s="40"/>
+      <c r="AL42" s="40"/>
       <c r="AM42" s="37"/>
       <c r="AN42" s="37"/>
       <c r="AO42" s="37"/>
@@ -4680,8 +4691,8 @@
       <c r="AH43" s="36"/>
       <c r="AI43" s="36"/>
       <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="37"/>
+      <c r="AK43" s="40"/>
+      <c r="AL43" s="40"/>
       <c r="AM43" s="37"/>
       <c r="AN43" s="37"/>
       <c r="AO43" s="37"/>
@@ -4765,8 +4776,8 @@
       <c r="AH44" s="36"/>
       <c r="AI44" s="36"/>
       <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
+      <c r="AK44" s="40"/>
+      <c r="AL44" s="40"/>
       <c r="AM44" s="37"/>
       <c r="AN44" s="37"/>
       <c r="AO44" s="37"/>
@@ -4823,8 +4834,8 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
@@ -4881,8 +4892,8 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
@@ -4939,8 +4950,8 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
@@ -4997,8 +5008,8 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
@@ -5055,8 +5066,8 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -5113,8 +5124,8 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="42"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
@@ -5171,8 +5182,8 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
@@ -5229,8 +5240,8 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="42"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
@@ -5287,8 +5298,8 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
@@ -5345,8 +5356,8 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
@@ -5403,8 +5414,8 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
@@ -5461,8 +5472,8 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
+      <c r="AK56" s="42"/>
+      <c r="AL56" s="42"/>
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2"/>
@@ -5519,8 +5530,8 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
+      <c r="AK57" s="42"/>
+      <c r="AL57" s="42"/>
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
@@ -5577,8 +5588,8 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
+      <c r="AK58" s="42"/>
+      <c r="AL58" s="42"/>
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
@@ -5635,8 +5646,8 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
+      <c r="AK59" s="42"/>
+      <c r="AL59" s="42"/>
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
@@ -5693,8 +5704,8 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
+      <c r="AK60" s="42"/>
+      <c r="AL60" s="42"/>
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
@@ -5751,8 +5762,8 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
@@ -5809,8 +5820,8 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
+      <c r="AK62" s="42"/>
+      <c r="AL62" s="42"/>
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
@@ -5867,8 +5878,8 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
+      <c r="AK63" s="42"/>
+      <c r="AL63" s="42"/>
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
@@ -5925,8 +5936,8 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
+      <c r="AK64" s="42"/>
+      <c r="AL64" s="42"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
@@ -5983,8 +5994,8 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
+      <c r="AK65" s="42"/>
+      <c r="AL65" s="42"/>
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
@@ -6041,8 +6052,8 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
+      <c r="AK66" s="42"/>
+      <c r="AL66" s="42"/>
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
@@ -6099,8 +6110,8 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
+      <c r="AK67" s="42"/>
+      <c r="AL67" s="42"/>
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
@@ -6157,8 +6168,8 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
+      <c r="AK68" s="42"/>
+      <c r="AL68" s="42"/>
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
@@ -6215,8 +6226,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="42"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -6273,8 +6284,8 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
+      <c r="AK70" s="42"/>
+      <c r="AL70" s="42"/>
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
@@ -6331,8 +6342,8 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
-      <c r="AK71" s="2"/>
-      <c r="AL71" s="2"/>
+      <c r="AK71" s="42"/>
+      <c r="AL71" s="42"/>
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
@@ -6389,8 +6400,8 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
-      <c r="AK72" s="2"/>
-      <c r="AL72" s="2"/>
+      <c r="AK72" s="42"/>
+      <c r="AL72" s="42"/>
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
@@ -6447,8 +6458,8 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
-      <c r="AK73" s="2"/>
-      <c r="AL73" s="2"/>
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="42"/>
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
@@ -6505,8 +6516,8 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
+      <c r="AK74" s="42"/>
+      <c r="AL74" s="42"/>
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
@@ -6563,8 +6574,8 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
+      <c r="AK75" s="42"/>
+      <c r="AL75" s="42"/>
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
@@ -6621,8 +6632,8 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
+      <c r="AK76" s="42"/>
+      <c r="AL76" s="42"/>
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
@@ -6679,8 +6690,8 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
       <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="42"/>
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
@@ -6737,8 +6748,8 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
       <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="42"/>
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
@@ -6795,8 +6806,8 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
       <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
@@ -6853,8 +6864,8 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
       <c r="AJ80" s="2"/>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
       <c r="AO80" s="2"/>
@@ -6911,8 +6922,8 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
       <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
@@ -6969,8 +6980,8 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
       <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
+      <c r="AK82" s="42"/>
+      <c r="AL82" s="42"/>
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
@@ -7027,8 +7038,8 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
       <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
+      <c r="AK83" s="42"/>
+      <c r="AL83" s="42"/>
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
@@ -7085,8 +7096,8 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
       <c r="AJ84" s="2"/>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
+      <c r="AK84" s="42"/>
+      <c r="AL84" s="42"/>
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
@@ -7143,8 +7154,8 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
-      <c r="AK85" s="2"/>
-      <c r="AL85" s="2"/>
+      <c r="AK85" s="42"/>
+      <c r="AL85" s="42"/>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
@@ -7201,8 +7212,8 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
       <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
+      <c r="AK86" s="42"/>
+      <c r="AL86" s="42"/>
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
@@ -7259,8 +7270,8 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
       <c r="AJ87" s="2"/>
-      <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
+      <c r="AK87" s="42"/>
+      <c r="AL87" s="42"/>
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
@@ -7317,8 +7328,8 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
-      <c r="AK88" s="2"/>
-      <c r="AL88" s="2"/>
+      <c r="AK88" s="42"/>
+      <c r="AL88" s="42"/>
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
@@ -7375,8 +7386,8 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
-      <c r="AK89" s="2"/>
-      <c r="AL89" s="2"/>
+      <c r="AK89" s="42"/>
+      <c r="AL89" s="42"/>
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
@@ -7433,8 +7444,8 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
-      <c r="AK90" s="2"/>
-      <c r="AL90" s="2"/>
+      <c r="AK90" s="42"/>
+      <c r="AL90" s="42"/>
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
@@ -7491,8 +7502,8 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
-      <c r="AK91" s="2"/>
-      <c r="AL91" s="2"/>
+      <c r="AK91" s="42"/>
+      <c r="AL91" s="42"/>
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
@@ -7549,8 +7560,8 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
-      <c r="AK92" s="2"/>
-      <c r="AL92" s="2"/>
+      <c r="AK92" s="42"/>
+      <c r="AL92" s="42"/>
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
@@ -7607,8 +7618,8 @@
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
       <c r="AJ93" s="2"/>
-      <c r="AK93" s="2"/>
-      <c r="AL93" s="2"/>
+      <c r="AK93" s="42"/>
+      <c r="AL93" s="42"/>
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
@@ -7665,8 +7676,8 @@
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
-      <c r="AK94" s="2"/>
-      <c r="AL94" s="2"/>
+      <c r="AK94" s="42"/>
+      <c r="AL94" s="42"/>
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
@@ -7723,8 +7734,8 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
       <c r="AJ95" s="2"/>
-      <c r="AK95" s="2"/>
-      <c r="AL95" s="2"/>
+      <c r="AK95" s="42"/>
+      <c r="AL95" s="42"/>
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
@@ -7781,8 +7792,8 @@
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
       <c r="AJ96" s="2"/>
-      <c r="AK96" s="2"/>
-      <c r="AL96" s="2"/>
+      <c r="AK96" s="42"/>
+      <c r="AL96" s="42"/>
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
@@ -7839,8 +7850,8 @@
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
-      <c r="AK97" s="2"/>
-      <c r="AL97" s="2"/>
+      <c r="AK97" s="42"/>
+      <c r="AL97" s="42"/>
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
@@ -7897,8 +7908,8 @@
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
-      <c r="AK98" s="2"/>
-      <c r="AL98" s="2"/>
+      <c r="AK98" s="42"/>
+      <c r="AL98" s="42"/>
       <c r="AM98" s="2"/>
       <c r="AN98" s="2"/>
       <c r="AO98" s="2"/>
@@ -7955,8 +7966,8 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
-      <c r="AK99" s="2"/>
-      <c r="AL99" s="2"/>
+      <c r="AK99" s="42"/>
+      <c r="AL99" s="42"/>
       <c r="AM99" s="2"/>
       <c r="AN99" s="2"/>
       <c r="AO99" s="2"/>
@@ -8013,8 +8024,8 @@
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
       <c r="AJ100" s="2"/>
-      <c r="AK100" s="2"/>
-      <c r="AL100" s="2"/>
+      <c r="AK100" s="42"/>
+      <c r="AL100" s="42"/>
       <c r="AM100" s="2"/>
       <c r="AN100" s="2"/>
       <c r="AO100" s="2"/>
@@ -8071,8 +8082,8 @@
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
       <c r="AJ101" s="2"/>
-      <c r="AK101" s="2"/>
-      <c r="AL101" s="2"/>
+      <c r="AK101" s="42"/>
+      <c r="AL101" s="42"/>
       <c r="AM101" s="2"/>
       <c r="AN101" s="2"/>
       <c r="AO101" s="2"/>
@@ -8129,8 +8140,8 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2"/>
-      <c r="AK102" s="2"/>
-      <c r="AL102" s="2"/>
+      <c r="AK102" s="42"/>
+      <c r="AL102" s="42"/>
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
       <c r="AO102" s="2"/>
@@ -8187,8 +8198,8 @@
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
       <c r="AJ103" s="2"/>
-      <c r="AK103" s="2"/>
-      <c r="AL103" s="2"/>
+      <c r="AK103" s="42"/>
+      <c r="AL103" s="42"/>
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
@@ -8245,8 +8256,8 @@
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
-      <c r="AK104" s="2"/>
-      <c r="AL104" s="2"/>
+      <c r="AK104" s="42"/>
+      <c r="AL104" s="42"/>
       <c r="AM104" s="2"/>
       <c r="AN104" s="2"/>
       <c r="AO104" s="2"/>
@@ -8303,8 +8314,8 @@
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
-      <c r="AK105" s="2"/>
-      <c r="AL105" s="2"/>
+      <c r="AK105" s="42"/>
+      <c r="AL105" s="42"/>
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
@@ -8361,8 +8372,8 @@
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
-      <c r="AK106" s="2"/>
-      <c r="AL106" s="2"/>
+      <c r="AK106" s="42"/>
+      <c r="AL106" s="42"/>
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
@@ -8419,8 +8430,8 @@
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
+      <c r="AK107" s="42"/>
+      <c r="AL107" s="42"/>
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
@@ -8477,8 +8488,8 @@
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
       <c r="AJ108" s="2"/>
-      <c r="AK108" s="2"/>
-      <c r="AL108" s="2"/>
+      <c r="AK108" s="42"/>
+      <c r="AL108" s="42"/>
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
@@ -8535,8 +8546,8 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
       <c r="AJ109" s="2"/>
-      <c r="AK109" s="2"/>
-      <c r="AL109" s="2"/>
+      <c r="AK109" s="42"/>
+      <c r="AL109" s="42"/>
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
       <c r="AO109" s="2"/>
@@ -8593,8 +8604,8 @@
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
       <c r="AJ110" s="2"/>
-      <c r="AK110" s="2"/>
-      <c r="AL110" s="2"/>
+      <c r="AK110" s="42"/>
+      <c r="AL110" s="42"/>
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
       <c r="AO110" s="2"/>
@@ -8651,8 +8662,8 @@
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
       <c r="AJ111" s="2"/>
-      <c r="AK111" s="2"/>
-      <c r="AL111" s="2"/>
+      <c r="AK111" s="42"/>
+      <c r="AL111" s="42"/>
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
@@ -8709,8 +8720,8 @@
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
       <c r="AJ112" s="2"/>
-      <c r="AK112" s="2"/>
-      <c r="AL112" s="2"/>
+      <c r="AK112" s="42"/>
+      <c r="AL112" s="42"/>
       <c r="AM112" s="2"/>
       <c r="AN112" s="2"/>
       <c r="AO112" s="2"/>
@@ -8767,8 +8778,8 @@
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
-      <c r="AK113" s="2"/>
-      <c r="AL113" s="2"/>
+      <c r="AK113" s="42"/>
+      <c r="AL113" s="42"/>
       <c r="AM113" s="2"/>
       <c r="AN113" s="2"/>
       <c r="AO113" s="2"/>
@@ -8825,8 +8836,8 @@
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
-      <c r="AK114" s="2"/>
-      <c r="AL114" s="2"/>
+      <c r="AK114" s="42"/>
+      <c r="AL114" s="42"/>
       <c r="AM114" s="2"/>
       <c r="AN114" s="2"/>
       <c r="AO114" s="2"/>
@@ -8883,8 +8894,8 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
       <c r="AJ115" s="2"/>
-      <c r="AK115" s="2"/>
-      <c r="AL115" s="2"/>
+      <c r="AK115" s="42"/>
+      <c r="AL115" s="42"/>
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
@@ -8941,8 +8952,8 @@
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
-      <c r="AK116" s="2"/>
-      <c r="AL116" s="2"/>
+      <c r="AK116" s="42"/>
+      <c r="AL116" s="42"/>
       <c r="AM116" s="2"/>
       <c r="AN116" s="2"/>
       <c r="AO116" s="2"/>
@@ -8999,8 +9010,8 @@
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
       <c r="AJ117" s="2"/>
-      <c r="AK117" s="2"/>
-      <c r="AL117" s="2"/>
+      <c r="AK117" s="42"/>
+      <c r="AL117" s="42"/>
       <c r="AM117" s="2"/>
       <c r="AN117" s="2"/>
       <c r="AO117" s="2"/>
@@ -9057,8 +9068,8 @@
       <c r="AH118" s="2"/>
       <c r="AI118" s="2"/>
       <c r="AJ118" s="2"/>
-      <c r="AK118" s="2"/>
-      <c r="AL118" s="2"/>
+      <c r="AK118" s="42"/>
+      <c r="AL118" s="42"/>
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
       <c r="AO118" s="2"/>
@@ -9115,8 +9126,8 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
-      <c r="AK119" s="2"/>
-      <c r="AL119" s="2"/>
+      <c r="AK119" s="42"/>
+      <c r="AL119" s="42"/>
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
       <c r="AO119" s="2"/>
@@ -9173,8 +9184,8 @@
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
-      <c r="AK120" s="2"/>
-      <c r="AL120" s="2"/>
+      <c r="AK120" s="42"/>
+      <c r="AL120" s="42"/>
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
@@ -9231,8 +9242,8 @@
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
       <c r="AJ121" s="2"/>
-      <c r="AK121" s="2"/>
-      <c r="AL121" s="2"/>
+      <c r="AK121" s="42"/>
+      <c r="AL121" s="42"/>
       <c r="AM121" s="2"/>
       <c r="AN121" s="2"/>
       <c r="AO121" s="2"/>
@@ -9289,8 +9300,8 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
       <c r="AJ122" s="2"/>
-      <c r="AK122" s="2"/>
-      <c r="AL122" s="2"/>
+      <c r="AK122" s="42"/>
+      <c r="AL122" s="42"/>
       <c r="AM122" s="2"/>
       <c r="AN122" s="2"/>
       <c r="AO122" s="2"/>
@@ -9347,8 +9358,8 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
-      <c r="AK123" s="2"/>
-      <c r="AL123" s="2"/>
+      <c r="AK123" s="42"/>
+      <c r="AL123" s="42"/>
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
@@ -9405,8 +9416,8 @@
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
-      <c r="AL124" s="2"/>
+      <c r="AK124" s="42"/>
+      <c r="AL124" s="42"/>
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
@@ -9463,8 +9474,8 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
       <c r="AJ125" s="2"/>
-      <c r="AK125" s="2"/>
-      <c r="AL125" s="2"/>
+      <c r="AK125" s="42"/>
+      <c r="AL125" s="42"/>
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
       <c r="AO125" s="2"/>
@@ -9521,8 +9532,8 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
-      <c r="AK126" s="2"/>
-      <c r="AL126" s="2"/>
+      <c r="AK126" s="42"/>
+      <c r="AL126" s="42"/>
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
@@ -9579,8 +9590,8 @@
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
-      <c r="AL127" s="2"/>
+      <c r="AK127" s="42"/>
+      <c r="AL127" s="42"/>
       <c r="AM127" s="2"/>
       <c r="AN127" s="2"/>
       <c r="AO127" s="2"/>
@@ -9637,8 +9648,8 @@
       <c r="AH128" s="2"/>
       <c r="AI128" s="2"/>
       <c r="AJ128" s="2"/>
-      <c r="AK128" s="2"/>
-      <c r="AL128" s="2"/>
+      <c r="AK128" s="42"/>
+      <c r="AL128" s="42"/>
       <c r="AM128" s="2"/>
       <c r="AN128" s="2"/>
       <c r="AO128" s="2"/>
@@ -9695,8 +9706,8 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
-      <c r="AK129" s="2"/>
-      <c r="AL129" s="2"/>
+      <c r="AK129" s="42"/>
+      <c r="AL129" s="42"/>
       <c r="AM129" s="2"/>
       <c r="AN129" s="2"/>
       <c r="AO129" s="2"/>
@@ -9753,8 +9764,8 @@
       <c r="AH130" s="2"/>
       <c r="AI130" s="2"/>
       <c r="AJ130" s="2"/>
-      <c r="AK130" s="2"/>
-      <c r="AL130" s="2"/>
+      <c r="AK130" s="42"/>
+      <c r="AL130" s="42"/>
       <c r="AM130" s="2"/>
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
@@ -9811,8 +9822,8 @@
       <c r="AH131" s="2"/>
       <c r="AI131" s="2"/>
       <c r="AJ131" s="2"/>
-      <c r="AK131" s="2"/>
-      <c r="AL131" s="2"/>
+      <c r="AK131" s="42"/>
+      <c r="AL131" s="42"/>
       <c r="AM131" s="2"/>
       <c r="AN131" s="2"/>
       <c r="AO131" s="2"/>
@@ -9869,8 +9880,8 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
-      <c r="AK132" s="2"/>
-      <c r="AL132" s="2"/>
+      <c r="AK132" s="42"/>
+      <c r="AL132" s="42"/>
       <c r="AM132" s="2"/>
       <c r="AN132" s="2"/>
       <c r="AO132" s="2"/>
@@ -9927,8 +9938,8 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2"/>
-      <c r="AK133" s="2"/>
-      <c r="AL133" s="2"/>
+      <c r="AK133" s="42"/>
+      <c r="AL133" s="42"/>
       <c r="AM133" s="2"/>
       <c r="AN133" s="2"/>
       <c r="AO133" s="2"/>
@@ -9985,8 +9996,8 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2"/>
-      <c r="AK134" s="2"/>
-      <c r="AL134" s="2"/>
+      <c r="AK134" s="42"/>
+      <c r="AL134" s="42"/>
       <c r="AM134" s="2"/>
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
@@ -10043,8 +10054,8 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
       <c r="AJ135" s="2"/>
-      <c r="AK135" s="2"/>
-      <c r="AL135" s="2"/>
+      <c r="AK135" s="42"/>
+      <c r="AL135" s="42"/>
       <c r="AM135" s="2"/>
       <c r="AN135" s="2"/>
       <c r="AO135" s="2"/>
@@ -10101,8 +10112,8 @@
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
-      <c r="AK136" s="2"/>
-      <c r="AL136" s="2"/>
+      <c r="AK136" s="42"/>
+      <c r="AL136" s="42"/>
       <c r="AM136" s="2"/>
       <c r="AN136" s="2"/>
       <c r="AO136" s="2"/>
@@ -10159,8 +10170,8 @@
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
       <c r="AJ137" s="2"/>
-      <c r="AK137" s="2"/>
-      <c r="AL137" s="2"/>
+      <c r="AK137" s="42"/>
+      <c r="AL137" s="42"/>
       <c r="AM137" s="2"/>
       <c r="AN137" s="2"/>
       <c r="AO137" s="2"/>
@@ -10217,8 +10228,8 @@
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
-      <c r="AK138" s="2"/>
-      <c r="AL138" s="2"/>
+      <c r="AK138" s="42"/>
+      <c r="AL138" s="42"/>
       <c r="AM138" s="2"/>
       <c r="AN138" s="2"/>
       <c r="AO138" s="2"/>
@@ -10275,8 +10286,8 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
       <c r="AJ139" s="2"/>
-      <c r="AK139" s="2"/>
-      <c r="AL139" s="2"/>
+      <c r="AK139" s="42"/>
+      <c r="AL139" s="42"/>
       <c r="AM139" s="2"/>
       <c r="AN139" s="2"/>
       <c r="AO139" s="2"/>
@@ -10333,8 +10344,8 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
       <c r="AJ140" s="2"/>
-      <c r="AK140" s="2"/>
-      <c r="AL140" s="2"/>
+      <c r="AK140" s="42"/>
+      <c r="AL140" s="42"/>
       <c r="AM140" s="2"/>
       <c r="AN140" s="2"/>
       <c r="AO140" s="2"/>
@@ -10391,8 +10402,8 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
       <c r="AJ141" s="2"/>
-      <c r="AK141" s="2"/>
-      <c r="AL141" s="2"/>
+      <c r="AK141" s="42"/>
+      <c r="AL141" s="42"/>
       <c r="AM141" s="2"/>
       <c r="AN141" s="2"/>
       <c r="AO141" s="2"/>
@@ -10449,8 +10460,8 @@
       <c r="AH142" s="2"/>
       <c r="AI142" s="2"/>
       <c r="AJ142" s="2"/>
-      <c r="AK142" s="2"/>
-      <c r="AL142" s="2"/>
+      <c r="AK142" s="42"/>
+      <c r="AL142" s="42"/>
       <c r="AM142" s="2"/>
       <c r="AN142" s="2"/>
       <c r="AO142" s="2"/>
@@ -10507,8 +10518,8 @@
       <c r="AH143" s="2"/>
       <c r="AI143" s="2"/>
       <c r="AJ143" s="2"/>
-      <c r="AK143" s="2"/>
-      <c r="AL143" s="2"/>
+      <c r="AK143" s="42"/>
+      <c r="AL143" s="42"/>
       <c r="AM143" s="2"/>
       <c r="AN143" s="2"/>
       <c r="AO143" s="2"/>
@@ -10565,8 +10576,8 @@
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
       <c r="AJ144" s="2"/>
-      <c r="AK144" s="2"/>
-      <c r="AL144" s="2"/>
+      <c r="AK144" s="42"/>
+      <c r="AL144" s="42"/>
       <c r="AM144" s="2"/>
       <c r="AN144" s="2"/>
       <c r="AO144" s="2"/>
@@ -10623,8 +10634,8 @@
       <c r="AH145" s="2"/>
       <c r="AI145" s="2"/>
       <c r="AJ145" s="2"/>
-      <c r="AK145" s="2"/>
-      <c r="AL145" s="2"/>
+      <c r="AK145" s="42"/>
+      <c r="AL145" s="42"/>
       <c r="AM145" s="2"/>
       <c r="AN145" s="2"/>
       <c r="AO145" s="2"/>
@@ -10681,8 +10692,8 @@
       <c r="AH146" s="2"/>
       <c r="AI146" s="2"/>
       <c r="AJ146" s="2"/>
-      <c r="AK146" s="2"/>
-      <c r="AL146" s="2"/>
+      <c r="AK146" s="42"/>
+      <c r="AL146" s="42"/>
       <c r="AM146" s="2"/>
       <c r="AN146" s="2"/>
       <c r="AO146" s="2"/>
@@ -10739,8 +10750,8 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2"/>
-      <c r="AK147" s="2"/>
-      <c r="AL147" s="2"/>
+      <c r="AK147" s="42"/>
+      <c r="AL147" s="42"/>
       <c r="AM147" s="2"/>
       <c r="AN147" s="2"/>
       <c r="AO147" s="2"/>
@@ -10797,8 +10808,8 @@
       <c r="AH148" s="2"/>
       <c r="AI148" s="2"/>
       <c r="AJ148" s="2"/>
-      <c r="AK148" s="2"/>
-      <c r="AL148" s="2"/>
+      <c r="AK148" s="42"/>
+      <c r="AL148" s="42"/>
       <c r="AM148" s="2"/>
       <c r="AN148" s="2"/>
       <c r="AO148" s="2"/>
@@ -10855,8 +10866,8 @@
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
       <c r="AJ149" s="2"/>
-      <c r="AK149" s="2"/>
-      <c r="AL149" s="2"/>
+      <c r="AK149" s="42"/>
+      <c r="AL149" s="42"/>
       <c r="AM149" s="2"/>
       <c r="AN149" s="2"/>
       <c r="AO149" s="2"/>
@@ -10913,8 +10924,8 @@
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
       <c r="AJ150" s="2"/>
-      <c r="AK150" s="2"/>
-      <c r="AL150" s="2"/>
+      <c r="AK150" s="42"/>
+      <c r="AL150" s="42"/>
       <c r="AM150" s="2"/>
       <c r="AN150" s="2"/>
       <c r="AO150" s="2"/>
@@ -10971,8 +10982,8 @@
       <c r="AH151" s="2"/>
       <c r="AI151" s="2"/>
       <c r="AJ151" s="2"/>
-      <c r="AK151" s="2"/>
-      <c r="AL151" s="2"/>
+      <c r="AK151" s="42"/>
+      <c r="AL151" s="42"/>
       <c r="AM151" s="2"/>
       <c r="AN151" s="2"/>
       <c r="AO151" s="2"/>
@@ -11029,8 +11040,8 @@
       <c r="AH152" s="2"/>
       <c r="AI152" s="2"/>
       <c r="AJ152" s="2"/>
-      <c r="AK152" s="2"/>
-      <c r="AL152" s="2"/>
+      <c r="AK152" s="42"/>
+      <c r="AL152" s="42"/>
       <c r="AM152" s="2"/>
       <c r="AN152" s="2"/>
       <c r="AO152" s="2"/>
@@ -11087,8 +11098,8 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
-      <c r="AK153" s="2"/>
-      <c r="AL153" s="2"/>
+      <c r="AK153" s="42"/>
+      <c r="AL153" s="42"/>
       <c r="AM153" s="2"/>
       <c r="AN153" s="2"/>
       <c r="AO153" s="2"/>
@@ -11145,8 +11156,8 @@
       <c r="AH154" s="2"/>
       <c r="AI154" s="2"/>
       <c r="AJ154" s="2"/>
-      <c r="AK154" s="2"/>
-      <c r="AL154" s="2"/>
+      <c r="AK154" s="42"/>
+      <c r="AL154" s="42"/>
       <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
       <c r="AO154" s="2"/>
@@ -11203,8 +11214,8 @@
       <c r="AH155" s="2"/>
       <c r="AI155" s="2"/>
       <c r="AJ155" s="2"/>
-      <c r="AK155" s="2"/>
-      <c r="AL155" s="2"/>
+      <c r="AK155" s="42"/>
+      <c r="AL155" s="42"/>
       <c r="AM155" s="2"/>
       <c r="AN155" s="2"/>
       <c r="AO155" s="2"/>
@@ -11261,8 +11272,8 @@
       <c r="AH156" s="2"/>
       <c r="AI156" s="2"/>
       <c r="AJ156" s="2"/>
-      <c r="AK156" s="2"/>
-      <c r="AL156" s="2"/>
+      <c r="AK156" s="42"/>
+      <c r="AL156" s="42"/>
       <c r="AM156" s="2"/>
       <c r="AN156" s="2"/>
       <c r="AO156" s="2"/>
@@ -11319,8 +11330,8 @@
       <c r="AH157" s="2"/>
       <c r="AI157" s="2"/>
       <c r="AJ157" s="2"/>
-      <c r="AK157" s="2"/>
-      <c r="AL157" s="2"/>
+      <c r="AK157" s="42"/>
+      <c r="AL157" s="42"/>
       <c r="AM157" s="2"/>
       <c r="AN157" s="2"/>
       <c r="AO157" s="2"/>
@@ -11377,8 +11388,8 @@
       <c r="AH158" s="2"/>
       <c r="AI158" s="2"/>
       <c r="AJ158" s="2"/>
-      <c r="AK158" s="2"/>
-      <c r="AL158" s="2"/>
+      <c r="AK158" s="42"/>
+      <c r="AL158" s="42"/>
       <c r="AM158" s="2"/>
       <c r="AN158" s="2"/>
       <c r="AO158" s="2"/>
@@ -11435,8 +11446,8 @@
       <c r="AH159" s="2"/>
       <c r="AI159" s="2"/>
       <c r="AJ159" s="2"/>
-      <c r="AK159" s="2"/>
-      <c r="AL159" s="2"/>
+      <c r="AK159" s="42"/>
+      <c r="AL159" s="42"/>
       <c r="AM159" s="2"/>
       <c r="AN159" s="2"/>
       <c r="AO159" s="2"/>
@@ -11493,8 +11504,8 @@
       <c r="AH160" s="2"/>
       <c r="AI160" s="2"/>
       <c r="AJ160" s="2"/>
-      <c r="AK160" s="2"/>
-      <c r="AL160" s="2"/>
+      <c r="AK160" s="42"/>
+      <c r="AL160" s="42"/>
       <c r="AM160" s="2"/>
       <c r="AN160" s="2"/>
       <c r="AO160" s="2"/>
@@ -11551,8 +11562,8 @@
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
       <c r="AJ161" s="2"/>
-      <c r="AK161" s="2"/>
-      <c r="AL161" s="2"/>
+      <c r="AK161" s="42"/>
+      <c r="AL161" s="42"/>
       <c r="AM161" s="2"/>
       <c r="AN161" s="2"/>
       <c r="AO161" s="2"/>
@@ -11609,8 +11620,8 @@
       <c r="AH162" s="2"/>
       <c r="AI162" s="2"/>
       <c r="AJ162" s="2"/>
-      <c r="AK162" s="2"/>
-      <c r="AL162" s="2"/>
+      <c r="AK162" s="42"/>
+      <c r="AL162" s="42"/>
       <c r="AM162" s="2"/>
       <c r="AN162" s="2"/>
       <c r="AO162" s="2"/>
@@ -11667,8 +11678,8 @@
       <c r="AH163" s="2"/>
       <c r="AI163" s="2"/>
       <c r="AJ163" s="2"/>
-      <c r="AK163" s="2"/>
-      <c r="AL163" s="2"/>
+      <c r="AK163" s="42"/>
+      <c r="AL163" s="42"/>
       <c r="AM163" s="2"/>
       <c r="AN163" s="2"/>
       <c r="AO163" s="2"/>
@@ -11725,8 +11736,8 @@
       <c r="AH164" s="2"/>
       <c r="AI164" s="2"/>
       <c r="AJ164" s="2"/>
-      <c r="AK164" s="2"/>
-      <c r="AL164" s="2"/>
+      <c r="AK164" s="42"/>
+      <c r="AL164" s="42"/>
       <c r="AM164" s="2"/>
       <c r="AN164" s="2"/>
       <c r="AO164" s="2"/>
@@ -11783,8 +11794,8 @@
       <c r="AH165" s="2"/>
       <c r="AI165" s="2"/>
       <c r="AJ165" s="2"/>
-      <c r="AK165" s="2"/>
-      <c r="AL165" s="2"/>
+      <c r="AK165" s="42"/>
+      <c r="AL165" s="42"/>
       <c r="AM165" s="2"/>
       <c r="AN165" s="2"/>
       <c r="AO165" s="2"/>
@@ -11841,8 +11852,8 @@
       <c r="AH166" s="2"/>
       <c r="AI166" s="2"/>
       <c r="AJ166" s="2"/>
-      <c r="AK166" s="2"/>
-      <c r="AL166" s="2"/>
+      <c r="AK166" s="42"/>
+      <c r="AL166" s="42"/>
       <c r="AM166" s="2"/>
       <c r="AN166" s="2"/>
       <c r="AO166" s="2"/>
@@ -11899,8 +11910,8 @@
       <c r="AH167" s="2"/>
       <c r="AI167" s="2"/>
       <c r="AJ167" s="2"/>
-      <c r="AK167" s="2"/>
-      <c r="AL167" s="2"/>
+      <c r="AK167" s="42"/>
+      <c r="AL167" s="42"/>
       <c r="AM167" s="2"/>
       <c r="AN167" s="2"/>
       <c r="AO167" s="2"/>
@@ -11957,8 +11968,8 @@
       <c r="AH168" s="2"/>
       <c r="AI168" s="2"/>
       <c r="AJ168" s="2"/>
-      <c r="AK168" s="2"/>
-      <c r="AL168" s="2"/>
+      <c r="AK168" s="42"/>
+      <c r="AL168" s="42"/>
       <c r="AM168" s="2"/>
       <c r="AN168" s="2"/>
       <c r="AO168" s="2"/>
@@ -12015,8 +12026,8 @@
       <c r="AH169" s="2"/>
       <c r="AI169" s="2"/>
       <c r="AJ169" s="2"/>
-      <c r="AK169" s="2"/>
-      <c r="AL169" s="2"/>
+      <c r="AK169" s="42"/>
+      <c r="AL169" s="42"/>
       <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
       <c r="AO169" s="2"/>
@@ -12073,8 +12084,8 @@
       <c r="AH170" s="2"/>
       <c r="AI170" s="2"/>
       <c r="AJ170" s="2"/>
-      <c r="AK170" s="2"/>
-      <c r="AL170" s="2"/>
+      <c r="AK170" s="42"/>
+      <c r="AL170" s="42"/>
       <c r="AM170" s="2"/>
       <c r="AN170" s="2"/>
       <c r="AO170" s="2"/>
@@ -12131,8 +12142,8 @@
       <c r="AH171" s="2"/>
       <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
-      <c r="AK171" s="2"/>
-      <c r="AL171" s="2"/>
+      <c r="AK171" s="42"/>
+      <c r="AL171" s="42"/>
       <c r="AM171" s="2"/>
       <c r="AN171" s="2"/>
       <c r="AO171" s="2"/>
@@ -12189,8 +12200,8 @@
       <c r="AH172" s="2"/>
       <c r="AI172" s="2"/>
       <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
+      <c r="AK172" s="42"/>
+      <c r="AL172" s="42"/>
       <c r="AM172" s="2"/>
       <c r="AN172" s="2"/>
       <c r="AO172" s="2"/>
@@ -12247,8 +12258,8 @@
       <c r="AH173" s="2"/>
       <c r="AI173" s="2"/>
       <c r="AJ173" s="2"/>
-      <c r="AK173" s="2"/>
-      <c r="AL173" s="2"/>
+      <c r="AK173" s="42"/>
+      <c r="AL173" s="42"/>
       <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
       <c r="AO173" s="2"/>
@@ -12305,8 +12316,8 @@
       <c r="AH174" s="2"/>
       <c r="AI174" s="2"/>
       <c r="AJ174" s="2"/>
-      <c r="AK174" s="2"/>
-      <c r="AL174" s="2"/>
+      <c r="AK174" s="42"/>
+      <c r="AL174" s="42"/>
       <c r="AM174" s="2"/>
       <c r="AN174" s="2"/>
       <c r="AO174" s="2"/>
@@ -12363,8 +12374,8 @@
       <c r="AH175" s="2"/>
       <c r="AI175" s="2"/>
       <c r="AJ175" s="2"/>
-      <c r="AK175" s="2"/>
-      <c r="AL175" s="2"/>
+      <c r="AK175" s="42"/>
+      <c r="AL175" s="42"/>
       <c r="AM175" s="2"/>
       <c r="AN175" s="2"/>
       <c r="AO175" s="2"/>
@@ -12421,8 +12432,8 @@
       <c r="AH176" s="2"/>
       <c r="AI176" s="2"/>
       <c r="AJ176" s="2"/>
-      <c r="AK176" s="2"/>
-      <c r="AL176" s="2"/>
+      <c r="AK176" s="42"/>
+      <c r="AL176" s="42"/>
       <c r="AM176" s="2"/>
       <c r="AN176" s="2"/>
       <c r="AO176" s="2"/>
@@ -12479,8 +12490,8 @@
       <c r="AH177" s="2"/>
       <c r="AI177" s="2"/>
       <c r="AJ177" s="2"/>
-      <c r="AK177" s="2"/>
-      <c r="AL177" s="2"/>
+      <c r="AK177" s="42"/>
+      <c r="AL177" s="42"/>
       <c r="AM177" s="2"/>
       <c r="AN177" s="2"/>
       <c r="AO177" s="2"/>
@@ -12537,8 +12548,8 @@
       <c r="AH178" s="2"/>
       <c r="AI178" s="2"/>
       <c r="AJ178" s="2"/>
-      <c r="AK178" s="2"/>
-      <c r="AL178" s="2"/>
+      <c r="AK178" s="42"/>
+      <c r="AL178" s="42"/>
       <c r="AM178" s="2"/>
       <c r="AN178" s="2"/>
       <c r="AO178" s="2"/>
@@ -12595,8 +12606,8 @@
       <c r="AH179" s="2"/>
       <c r="AI179" s="2"/>
       <c r="AJ179" s="2"/>
-      <c r="AK179" s="2"/>
-      <c r="AL179" s="2"/>
+      <c r="AK179" s="42"/>
+      <c r="AL179" s="42"/>
       <c r="AM179" s="2"/>
       <c r="AN179" s="2"/>
       <c r="AO179" s="2"/>
@@ -12653,8 +12664,8 @@
       <c r="AH180" s="2"/>
       <c r="AI180" s="2"/>
       <c r="AJ180" s="2"/>
-      <c r="AK180" s="2"/>
-      <c r="AL180" s="2"/>
+      <c r="AK180" s="42"/>
+      <c r="AL180" s="42"/>
       <c r="AM180" s="2"/>
       <c r="AN180" s="2"/>
       <c r="AO180" s="2"/>
@@ -12711,8 +12722,8 @@
       <c r="AH181" s="2"/>
       <c r="AI181" s="2"/>
       <c r="AJ181" s="2"/>
-      <c r="AK181" s="2"/>
-      <c r="AL181" s="2"/>
+      <c r="AK181" s="42"/>
+      <c r="AL181" s="42"/>
       <c r="AM181" s="2"/>
       <c r="AN181" s="2"/>
       <c r="AO181" s="2"/>
@@ -12769,8 +12780,8 @@
       <c r="AH182" s="2"/>
       <c r="AI182" s="2"/>
       <c r="AJ182" s="2"/>
-      <c r="AK182" s="2"/>
-      <c r="AL182" s="2"/>
+      <c r="AK182" s="42"/>
+      <c r="AL182" s="42"/>
       <c r="AM182" s="2"/>
       <c r="AN182" s="2"/>
       <c r="AO182" s="2"/>
@@ -12827,8 +12838,8 @@
       <c r="AH183" s="2"/>
       <c r="AI183" s="2"/>
       <c r="AJ183" s="2"/>
-      <c r="AK183" s="2"/>
-      <c r="AL183" s="2"/>
+      <c r="AK183" s="42"/>
+      <c r="AL183" s="42"/>
       <c r="AM183" s="2"/>
       <c r="AN183" s="2"/>
       <c r="AO183" s="2"/>
@@ -12885,8 +12896,8 @@
       <c r="AH184" s="2"/>
       <c r="AI184" s="2"/>
       <c r="AJ184" s="2"/>
-      <c r="AK184" s="2"/>
-      <c r="AL184" s="2"/>
+      <c r="AK184" s="42"/>
+      <c r="AL184" s="42"/>
       <c r="AM184" s="2"/>
       <c r="AN184" s="2"/>
       <c r="AO184" s="2"/>
@@ -12943,8 +12954,8 @@
       <c r="AH185" s="2"/>
       <c r="AI185" s="2"/>
       <c r="AJ185" s="2"/>
-      <c r="AK185" s="2"/>
-      <c r="AL185" s="2"/>
+      <c r="AK185" s="42"/>
+      <c r="AL185" s="42"/>
       <c r="AM185" s="2"/>
       <c r="AN185" s="2"/>
       <c r="AO185" s="2"/>
@@ -13001,8 +13012,8 @@
       <c r="AH186" s="2"/>
       <c r="AI186" s="2"/>
       <c r="AJ186" s="2"/>
-      <c r="AK186" s="2"/>
-      <c r="AL186" s="2"/>
+      <c r="AK186" s="42"/>
+      <c r="AL186" s="42"/>
       <c r="AM186" s="2"/>
       <c r="AN186" s="2"/>
       <c r="AO186" s="2"/>
@@ -13059,8 +13070,8 @@
       <c r="AH187" s="2"/>
       <c r="AI187" s="2"/>
       <c r="AJ187" s="2"/>
-      <c r="AK187" s="2"/>
-      <c r="AL187" s="2"/>
+      <c r="AK187" s="42"/>
+      <c r="AL187" s="42"/>
       <c r="AM187" s="2"/>
       <c r="AN187" s="2"/>
       <c r="AO187" s="2"/>
@@ -13117,8 +13128,8 @@
       <c r="AH188" s="2"/>
       <c r="AI188" s="2"/>
       <c r="AJ188" s="2"/>
-      <c r="AK188" s="2"/>
-      <c r="AL188" s="2"/>
+      <c r="AK188" s="42"/>
+      <c r="AL188" s="42"/>
       <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
       <c r="AO188" s="2"/>
@@ -13175,8 +13186,8 @@
       <c r="AH189" s="2"/>
       <c r="AI189" s="2"/>
       <c r="AJ189" s="2"/>
-      <c r="AK189" s="2"/>
-      <c r="AL189" s="2"/>
+      <c r="AK189" s="42"/>
+      <c r="AL189" s="42"/>
       <c r="AM189" s="2"/>
       <c r="AN189" s="2"/>
       <c r="AO189" s="2"/>
@@ -13233,8 +13244,8 @@
       <c r="AH190" s="2"/>
       <c r="AI190" s="2"/>
       <c r="AJ190" s="2"/>
-      <c r="AK190" s="2"/>
-      <c r="AL190" s="2"/>
+      <c r="AK190" s="42"/>
+      <c r="AL190" s="42"/>
       <c r="AM190" s="2"/>
       <c r="AN190" s="2"/>
       <c r="AO190" s="2"/>
@@ -13291,8 +13302,8 @@
       <c r="AH191" s="2"/>
       <c r="AI191" s="2"/>
       <c r="AJ191" s="2"/>
-      <c r="AK191" s="2"/>
-      <c r="AL191" s="2"/>
+      <c r="AK191" s="42"/>
+      <c r="AL191" s="42"/>
       <c r="AM191" s="2"/>
       <c r="AN191" s="2"/>
       <c r="AO191" s="2"/>
@@ -13349,8 +13360,8 @@
       <c r="AH192" s="2"/>
       <c r="AI192" s="2"/>
       <c r="AJ192" s="2"/>
-      <c r="AK192" s="2"/>
-      <c r="AL192" s="2"/>
+      <c r="AK192" s="42"/>
+      <c r="AL192" s="42"/>
       <c r="AM192" s="2"/>
       <c r="AN192" s="2"/>
       <c r="AO192" s="2"/>
@@ -13407,8 +13418,8 @@
       <c r="AH193" s="2"/>
       <c r="AI193" s="2"/>
       <c r="AJ193" s="2"/>
-      <c r="AK193" s="2"/>
-      <c r="AL193" s="2"/>
+      <c r="AK193" s="42"/>
+      <c r="AL193" s="42"/>
       <c r="AM193" s="2"/>
       <c r="AN193" s="2"/>
       <c r="AO193" s="2"/>
@@ -13465,8 +13476,8 @@
       <c r="AH194" s="2"/>
       <c r="AI194" s="2"/>
       <c r="AJ194" s="2"/>
-      <c r="AK194" s="2"/>
-      <c r="AL194" s="2"/>
+      <c r="AK194" s="42"/>
+      <c r="AL194" s="42"/>
       <c r="AM194" s="2"/>
       <c r="AN194" s="2"/>
       <c r="AO194" s="2"/>
@@ -13523,8 +13534,8 @@
       <c r="AH195" s="2"/>
       <c r="AI195" s="2"/>
       <c r="AJ195" s="2"/>
-      <c r="AK195" s="2"/>
-      <c r="AL195" s="2"/>
+      <c r="AK195" s="42"/>
+      <c r="AL195" s="42"/>
       <c r="AM195" s="2"/>
       <c r="AN195" s="2"/>
       <c r="AO195" s="2"/>
@@ -13581,8 +13592,8 @@
       <c r="AH196" s="2"/>
       <c r="AI196" s="2"/>
       <c r="AJ196" s="2"/>
-      <c r="AK196" s="2"/>
-      <c r="AL196" s="2"/>
+      <c r="AK196" s="42"/>
+      <c r="AL196" s="42"/>
       <c r="AM196" s="2"/>
       <c r="AN196" s="2"/>
       <c r="AO196" s="2"/>
@@ -13639,8 +13650,8 @@
       <c r="AH197" s="2"/>
       <c r="AI197" s="2"/>
       <c r="AJ197" s="2"/>
-      <c r="AK197" s="2"/>
-      <c r="AL197" s="2"/>
+      <c r="AK197" s="42"/>
+      <c r="AL197" s="42"/>
       <c r="AM197" s="2"/>
       <c r="AN197" s="2"/>
       <c r="AO197" s="2"/>
@@ -13697,8 +13708,8 @@
       <c r="AH198" s="2"/>
       <c r="AI198" s="2"/>
       <c r="AJ198" s="2"/>
-      <c r="AK198" s="2"/>
-      <c r="AL198" s="2"/>
+      <c r="AK198" s="42"/>
+      <c r="AL198" s="42"/>
       <c r="AM198" s="2"/>
       <c r="AN198" s="2"/>
       <c r="AO198" s="2"/>
@@ -13755,8 +13766,8 @@
       <c r="AH199" s="2"/>
       <c r="AI199" s="2"/>
       <c r="AJ199" s="2"/>
-      <c r="AK199" s="2"/>
-      <c r="AL199" s="2"/>
+      <c r="AK199" s="42"/>
+      <c r="AL199" s="42"/>
       <c r="AM199" s="2"/>
       <c r="AN199" s="2"/>
       <c r="AO199" s="2"/>
@@ -13813,8 +13824,8 @@
       <c r="AH200" s="2"/>
       <c r="AI200" s="2"/>
       <c r="AJ200" s="2"/>
-      <c r="AK200" s="2"/>
-      <c r="AL200" s="2"/>
+      <c r="AK200" s="42"/>
+      <c r="AL200" s="42"/>
       <c r="AM200" s="2"/>
       <c r="AN200" s="2"/>
       <c r="AO200" s="2"/>
@@ -13871,8 +13882,8 @@
       <c r="AH201" s="2"/>
       <c r="AI201" s="2"/>
       <c r="AJ201" s="2"/>
-      <c r="AK201" s="2"/>
-      <c r="AL201" s="2"/>
+      <c r="AK201" s="42"/>
+      <c r="AL201" s="42"/>
       <c r="AM201" s="2"/>
       <c r="AN201" s="2"/>
       <c r="AO201" s="2"/>
@@ -13929,8 +13940,8 @@
       <c r="AH202" s="2"/>
       <c r="AI202" s="2"/>
       <c r="AJ202" s="2"/>
-      <c r="AK202" s="2"/>
-      <c r="AL202" s="2"/>
+      <c r="AK202" s="42"/>
+      <c r="AL202" s="42"/>
       <c r="AM202" s="2"/>
       <c r="AN202" s="2"/>
       <c r="AO202" s="2"/>
@@ -13987,8 +13998,8 @@
       <c r="AH203" s="2"/>
       <c r="AI203" s="2"/>
       <c r="AJ203" s="2"/>
-      <c r="AK203" s="2"/>
-      <c r="AL203" s="2"/>
+      <c r="AK203" s="42"/>
+      <c r="AL203" s="42"/>
       <c r="AM203" s="2"/>
       <c r="AN203" s="2"/>
       <c r="AO203" s="2"/>
@@ -14045,8 +14056,8 @@
       <c r="AH204" s="2"/>
       <c r="AI204" s="2"/>
       <c r="AJ204" s="2"/>
-      <c r="AK204" s="2"/>
-      <c r="AL204" s="2"/>
+      <c r="AK204" s="42"/>
+      <c r="AL204" s="42"/>
       <c r="AM204" s="2"/>
       <c r="AN204" s="2"/>
       <c r="AO204" s="2"/>
@@ -14103,8 +14114,8 @@
       <c r="AH205" s="2"/>
       <c r="AI205" s="2"/>
       <c r="AJ205" s="2"/>
-      <c r="AK205" s="2"/>
-      <c r="AL205" s="2"/>
+      <c r="AK205" s="42"/>
+      <c r="AL205" s="42"/>
       <c r="AM205" s="2"/>
       <c r="AN205" s="2"/>
       <c r="AO205" s="2"/>
@@ -14161,8 +14172,8 @@
       <c r="AH206" s="2"/>
       <c r="AI206" s="2"/>
       <c r="AJ206" s="2"/>
-      <c r="AK206" s="2"/>
-      <c r="AL206" s="2"/>
+      <c r="AK206" s="42"/>
+      <c r="AL206" s="42"/>
       <c r="AM206" s="2"/>
       <c r="AN206" s="2"/>
       <c r="AO206" s="2"/>
@@ -14219,8 +14230,8 @@
       <c r="AH207" s="2"/>
       <c r="AI207" s="2"/>
       <c r="AJ207" s="2"/>
-      <c r="AK207" s="2"/>
-      <c r="AL207" s="2"/>
+      <c r="AK207" s="42"/>
+      <c r="AL207" s="42"/>
       <c r="AM207" s="2"/>
       <c r="AN207" s="2"/>
       <c r="AO207" s="2"/>
@@ -14277,8 +14288,8 @@
       <c r="AH208" s="2"/>
       <c r="AI208" s="2"/>
       <c r="AJ208" s="2"/>
-      <c r="AK208" s="2"/>
-      <c r="AL208" s="2"/>
+      <c r="AK208" s="42"/>
+      <c r="AL208" s="42"/>
       <c r="AM208" s="2"/>
       <c r="AN208" s="2"/>
       <c r="AO208" s="2"/>
@@ -14335,8 +14346,8 @@
       <c r="AH209" s="2"/>
       <c r="AI209" s="2"/>
       <c r="AJ209" s="2"/>
-      <c r="AK209" s="2"/>
-      <c r="AL209" s="2"/>
+      <c r="AK209" s="42"/>
+      <c r="AL209" s="42"/>
       <c r="AM209" s="2"/>
       <c r="AN209" s="2"/>
       <c r="AO209" s="2"/>
@@ -14393,8 +14404,8 @@
       <c r="AH210" s="2"/>
       <c r="AI210" s="2"/>
       <c r="AJ210" s="2"/>
-      <c r="AK210" s="2"/>
-      <c r="AL210" s="2"/>
+      <c r="AK210" s="42"/>
+      <c r="AL210" s="42"/>
       <c r="AM210" s="2"/>
       <c r="AN210" s="2"/>
       <c r="AO210" s="2"/>
@@ -14451,8 +14462,8 @@
       <c r="AH211" s="2"/>
       <c r="AI211" s="2"/>
       <c r="AJ211" s="2"/>
-      <c r="AK211" s="2"/>
-      <c r="AL211" s="2"/>
+      <c r="AK211" s="42"/>
+      <c r="AL211" s="42"/>
       <c r="AM211" s="2"/>
       <c r="AN211" s="2"/>
       <c r="AO211" s="2"/>
@@ -14509,8 +14520,8 @@
       <c r="AH212" s="2"/>
       <c r="AI212" s="2"/>
       <c r="AJ212" s="2"/>
-      <c r="AK212" s="2"/>
-      <c r="AL212" s="2"/>
+      <c r="AK212" s="42"/>
+      <c r="AL212" s="42"/>
       <c r="AM212" s="2"/>
       <c r="AN212" s="2"/>
       <c r="AO212" s="2"/>
@@ -14567,8 +14578,8 @@
       <c r="AH213" s="2"/>
       <c r="AI213" s="2"/>
       <c r="AJ213" s="2"/>
-      <c r="AK213" s="2"/>
-      <c r="AL213" s="2"/>
+      <c r="AK213" s="42"/>
+      <c r="AL213" s="42"/>
       <c r="AM213" s="2"/>
       <c r="AN213" s="2"/>
       <c r="AO213" s="2"/>
@@ -14625,8 +14636,8 @@
       <c r="AH214" s="2"/>
       <c r="AI214" s="2"/>
       <c r="AJ214" s="2"/>
-      <c r="AK214" s="2"/>
-      <c r="AL214" s="2"/>
+      <c r="AK214" s="42"/>
+      <c r="AL214" s="42"/>
       <c r="AM214" s="2"/>
       <c r="AN214" s="2"/>
       <c r="AO214" s="2"/>
@@ -14683,8 +14694,8 @@
       <c r="AH215" s="2"/>
       <c r="AI215" s="2"/>
       <c r="AJ215" s="2"/>
-      <c r="AK215" s="2"/>
-      <c r="AL215" s="2"/>
+      <c r="AK215" s="42"/>
+      <c r="AL215" s="42"/>
       <c r="AM215" s="2"/>
       <c r="AN215" s="2"/>
       <c r="AO215" s="2"/>
@@ -14741,8 +14752,8 @@
       <c r="AH216" s="2"/>
       <c r="AI216" s="2"/>
       <c r="AJ216" s="2"/>
-      <c r="AK216" s="2"/>
-      <c r="AL216" s="2"/>
+      <c r="AK216" s="42"/>
+      <c r="AL216" s="42"/>
       <c r="AM216" s="2"/>
       <c r="AN216" s="2"/>
       <c r="AO216" s="2"/>
@@ -14799,8 +14810,8 @@
       <c r="AH217" s="2"/>
       <c r="AI217" s="2"/>
       <c r="AJ217" s="2"/>
-      <c r="AK217" s="2"/>
-      <c r="AL217" s="2"/>
+      <c r="AK217" s="42"/>
+      <c r="AL217" s="42"/>
       <c r="AM217" s="2"/>
       <c r="AN217" s="2"/>
       <c r="AO217" s="2"/>
@@ -14857,8 +14868,8 @@
       <c r="AH218" s="2"/>
       <c r="AI218" s="2"/>
       <c r="AJ218" s="2"/>
-      <c r="AK218" s="2"/>
-      <c r="AL218" s="2"/>
+      <c r="AK218" s="42"/>
+      <c r="AL218" s="42"/>
       <c r="AM218" s="2"/>
       <c r="AN218" s="2"/>
       <c r="AO218" s="2"/>
@@ -14915,8 +14926,8 @@
       <c r="AH219" s="2"/>
       <c r="AI219" s="2"/>
       <c r="AJ219" s="2"/>
-      <c r="AK219" s="2"/>
-      <c r="AL219" s="2"/>
+      <c r="AK219" s="42"/>
+      <c r="AL219" s="42"/>
       <c r="AM219" s="2"/>
       <c r="AN219" s="2"/>
       <c r="AO219" s="2"/>
@@ -14973,8 +14984,8 @@
       <c r="AH220" s="2"/>
       <c r="AI220" s="2"/>
       <c r="AJ220" s="2"/>
-      <c r="AK220" s="2"/>
-      <c r="AL220" s="2"/>
+      <c r="AK220" s="42"/>
+      <c r="AL220" s="42"/>
       <c r="AM220" s="2"/>
       <c r="AN220" s="2"/>
       <c r="AO220" s="2"/>
@@ -15031,8 +15042,8 @@
       <c r="AH221" s="2"/>
       <c r="AI221" s="2"/>
       <c r="AJ221" s="2"/>
-      <c r="AK221" s="2"/>
-      <c r="AL221" s="2"/>
+      <c r="AK221" s="42"/>
+      <c r="AL221" s="42"/>
       <c r="AM221" s="2"/>
       <c r="AN221" s="2"/>
       <c r="AO221" s="2"/>
@@ -15089,8 +15100,8 @@
       <c r="AH222" s="2"/>
       <c r="AI222" s="2"/>
       <c r="AJ222" s="2"/>
-      <c r="AK222" s="2"/>
-      <c r="AL222" s="2"/>
+      <c r="AK222" s="42"/>
+      <c r="AL222" s="42"/>
       <c r="AM222" s="2"/>
       <c r="AN222" s="2"/>
       <c r="AO222" s="2"/>
@@ -15147,8 +15158,8 @@
       <c r="AH223" s="2"/>
       <c r="AI223" s="2"/>
       <c r="AJ223" s="2"/>
-      <c r="AK223" s="2"/>
-      <c r="AL223" s="2"/>
+      <c r="AK223" s="42"/>
+      <c r="AL223" s="42"/>
       <c r="AM223" s="2"/>
       <c r="AN223" s="2"/>
       <c r="AO223" s="2"/>
@@ -15205,8 +15216,8 @@
       <c r="AH224" s="2"/>
       <c r="AI224" s="2"/>
       <c r="AJ224" s="2"/>
-      <c r="AK224" s="2"/>
-      <c r="AL224" s="2"/>
+      <c r="AK224" s="42"/>
+      <c r="AL224" s="42"/>
       <c r="AM224" s="2"/>
       <c r="AN224" s="2"/>
       <c r="AO224" s="2"/>
@@ -15263,8 +15274,8 @@
       <c r="AH225" s="2"/>
       <c r="AI225" s="2"/>
       <c r="AJ225" s="2"/>
-      <c r="AK225" s="2"/>
-      <c r="AL225" s="2"/>
+      <c r="AK225" s="42"/>
+      <c r="AL225" s="42"/>
       <c r="AM225" s="2"/>
       <c r="AN225" s="2"/>
       <c r="AO225" s="2"/>
@@ -15321,8 +15332,8 @@
       <c r="AH226" s="2"/>
       <c r="AI226" s="2"/>
       <c r="AJ226" s="2"/>
-      <c r="AK226" s="2"/>
-      <c r="AL226" s="2"/>
+      <c r="AK226" s="42"/>
+      <c r="AL226" s="42"/>
       <c r="AM226" s="2"/>
       <c r="AN226" s="2"/>
       <c r="AO226" s="2"/>
@@ -15379,8 +15390,8 @@
       <c r="AH227" s="2"/>
       <c r="AI227" s="2"/>
       <c r="AJ227" s="2"/>
-      <c r="AK227" s="2"/>
-      <c r="AL227" s="2"/>
+      <c r="AK227" s="42"/>
+      <c r="AL227" s="42"/>
       <c r="AM227" s="2"/>
       <c r="AN227" s="2"/>
       <c r="AO227" s="2"/>
@@ -15437,8 +15448,8 @@
       <c r="AH228" s="2"/>
       <c r="AI228" s="2"/>
       <c r="AJ228" s="2"/>
-      <c r="AK228" s="2"/>
-      <c r="AL228" s="2"/>
+      <c r="AK228" s="42"/>
+      <c r="AL228" s="42"/>
       <c r="AM228" s="2"/>
       <c r="AN228" s="2"/>
       <c r="AO228" s="2"/>
@@ -15495,8 +15506,8 @@
       <c r="AH229" s="2"/>
       <c r="AI229" s="2"/>
       <c r="AJ229" s="2"/>
-      <c r="AK229" s="2"/>
-      <c r="AL229" s="2"/>
+      <c r="AK229" s="42"/>
+      <c r="AL229" s="42"/>
       <c r="AM229" s="2"/>
       <c r="AN229" s="2"/>
       <c r="AO229" s="2"/>
@@ -15553,8 +15564,8 @@
       <c r="AH230" s="2"/>
       <c r="AI230" s="2"/>
       <c r="AJ230" s="2"/>
-      <c r="AK230" s="2"/>
-      <c r="AL230" s="2"/>
+      <c r="AK230" s="42"/>
+      <c r="AL230" s="42"/>
       <c r="AM230" s="2"/>
       <c r="AN230" s="2"/>
       <c r="AO230" s="2"/>
@@ -15611,8 +15622,8 @@
       <c r="AH231" s="2"/>
       <c r="AI231" s="2"/>
       <c r="AJ231" s="2"/>
-      <c r="AK231" s="2"/>
-      <c r="AL231" s="2"/>
+      <c r="AK231" s="42"/>
+      <c r="AL231" s="42"/>
       <c r="AM231" s="2"/>
       <c r="AN231" s="2"/>
       <c r="AO231" s="2"/>
@@ -15669,8 +15680,8 @@
       <c r="AH232" s="2"/>
       <c r="AI232" s="2"/>
       <c r="AJ232" s="2"/>
-      <c r="AK232" s="2"/>
-      <c r="AL232" s="2"/>
+      <c r="AK232" s="42"/>
+      <c r="AL232" s="42"/>
       <c r="AM232" s="2"/>
       <c r="AN232" s="2"/>
       <c r="AO232" s="2"/>
@@ -15727,8 +15738,8 @@
       <c r="AH233" s="2"/>
       <c r="AI233" s="2"/>
       <c r="AJ233" s="2"/>
-      <c r="AK233" s="2"/>
-      <c r="AL233" s="2"/>
+      <c r="AK233" s="42"/>
+      <c r="AL233" s="42"/>
       <c r="AM233" s="2"/>
       <c r="AN233" s="2"/>
       <c r="AO233" s="2"/>
@@ -15785,8 +15796,8 @@
       <c r="AH234" s="2"/>
       <c r="AI234" s="2"/>
       <c r="AJ234" s="2"/>
-      <c r="AK234" s="2"/>
-      <c r="AL234" s="2"/>
+      <c r="AK234" s="42"/>
+      <c r="AL234" s="42"/>
       <c r="AM234" s="2"/>
       <c r="AN234" s="2"/>
       <c r="AO234" s="2"/>
@@ -15843,8 +15854,8 @@
       <c r="AH235" s="2"/>
       <c r="AI235" s="2"/>
       <c r="AJ235" s="2"/>
-      <c r="AK235" s="2"/>
-      <c r="AL235" s="2"/>
+      <c r="AK235" s="42"/>
+      <c r="AL235" s="42"/>
       <c r="AM235" s="2"/>
       <c r="AN235" s="2"/>
       <c r="AO235" s="2"/>
@@ -15901,8 +15912,8 @@
       <c r="AH236" s="2"/>
       <c r="AI236" s="2"/>
       <c r="AJ236" s="2"/>
-      <c r="AK236" s="2"/>
-      <c r="AL236" s="2"/>
+      <c r="AK236" s="42"/>
+      <c r="AL236" s="42"/>
       <c r="AM236" s="2"/>
       <c r="AN236" s="2"/>
       <c r="AO236" s="2"/>
@@ -15959,8 +15970,8 @@
       <c r="AH237" s="2"/>
       <c r="AI237" s="2"/>
       <c r="AJ237" s="2"/>
-      <c r="AK237" s="2"/>
-      <c r="AL237" s="2"/>
+      <c r="AK237" s="42"/>
+      <c r="AL237" s="42"/>
       <c r="AM237" s="2"/>
       <c r="AN237" s="2"/>
       <c r="AO237" s="2"/>
@@ -16017,8 +16028,8 @@
       <c r="AH238" s="2"/>
       <c r="AI238" s="2"/>
       <c r="AJ238" s="2"/>
-      <c r="AK238" s="2"/>
-      <c r="AL238" s="2"/>
+      <c r="AK238" s="42"/>
+      <c r="AL238" s="42"/>
       <c r="AM238" s="2"/>
       <c r="AN238" s="2"/>
       <c r="AO238" s="2"/>
@@ -16075,8 +16086,8 @@
       <c r="AH239" s="2"/>
       <c r="AI239" s="2"/>
       <c r="AJ239" s="2"/>
-      <c r="AK239" s="2"/>
-      <c r="AL239" s="2"/>
+      <c r="AK239" s="42"/>
+      <c r="AL239" s="42"/>
       <c r="AM239" s="2"/>
       <c r="AN239" s="2"/>
       <c r="AO239" s="2"/>
@@ -16133,8 +16144,8 @@
       <c r="AH240" s="2"/>
       <c r="AI240" s="2"/>
       <c r="AJ240" s="2"/>
-      <c r="AK240" s="2"/>
-      <c r="AL240" s="2"/>
+      <c r="AK240" s="42"/>
+      <c r="AL240" s="42"/>
       <c r="AM240" s="2"/>
       <c r="AN240" s="2"/>
       <c r="AO240" s="2"/>
@@ -16191,8 +16202,8 @@
       <c r="AH241" s="2"/>
       <c r="AI241" s="2"/>
       <c r="AJ241" s="2"/>
-      <c r="AK241" s="2"/>
-      <c r="AL241" s="2"/>
+      <c r="AK241" s="42"/>
+      <c r="AL241" s="42"/>
       <c r="AM241" s="2"/>
       <c r="AN241" s="2"/>
       <c r="AO241" s="2"/>
@@ -16249,8 +16260,8 @@
       <c r="AH242" s="2"/>
       <c r="AI242" s="2"/>
       <c r="AJ242" s="2"/>
-      <c r="AK242" s="2"/>
-      <c r="AL242" s="2"/>
+      <c r="AK242" s="42"/>
+      <c r="AL242" s="42"/>
       <c r="AM242" s="2"/>
       <c r="AN242" s="2"/>
       <c r="AO242" s="2"/>
@@ -17033,8 +17044,8 @@
   </sheetPr>
   <dimension ref="A1:AH999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="P39" workbookViewId="0">
+      <selection activeCell="Z57" sqref="Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17251,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A2)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A2)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ993,"Sim",Geral!AK$2:AK993,A2)+COUNTIFS(Geral!AJ$2:AJ993,"Sim",Geral!AL$2:AL993,A2)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="17">
@@ -17376,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A3)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A3)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ994,"Sim",Geral!AK$2:AK994,A3)+COUNTIFS(Geral!AJ$2:AJ994,"Sim",Geral!AL$2:AL994,A3)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="17">
@@ -17501,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A4)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A4)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ995,"Sim",Geral!AK$2:AK995,A4)+COUNTIFS(Geral!AJ$2:AJ995,"Sim",Geral!AL$2:AL995,A4)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="17">
@@ -17626,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A5)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A5)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ996,"Sim",Geral!AK$2:AK996,A5)+COUNTIFS(Geral!AJ$2:AJ996,"Sim",Geral!AL$2:AL996,A5)</f>
         <v>1</v>
       </c>
       <c r="AA5" s="17">
@@ -17751,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A6)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A6)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ997,"Sim",Geral!AK$2:AK997,A6)+COUNTIFS(Geral!AJ$2:AJ997,"Sim",Geral!AL$2:AL997,A6)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="17">
@@ -17876,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A7)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A7)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ998,"Sim",Geral!AK$2:AK998,A7)+COUNTIFS(Geral!AJ$2:AJ998,"Sim",Geral!AL$2:AL998,A7)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="17">
@@ -18001,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A8)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A8)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ999,"Sim",Geral!AK$2:AK999,A8)+COUNTIFS(Geral!AJ$2:AJ999,"Sim",Geral!AL$2:AL999,A8)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="17">
@@ -18126,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A9)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A9)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1000,"Sim",Geral!AK$2:AK1000,A9)+COUNTIFS(Geral!AJ$2:AJ1000,"Sim",Geral!AL$2:AL1000,A9)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="17">
@@ -18251,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A10)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A10)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1001,"Sim",Geral!AK$2:AK1001,A10)+COUNTIFS(Geral!AJ$2:AJ1001,"Sim",Geral!AL$2:AL1001,A10)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="17">
@@ -18376,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A11)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A11)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1002,"Sim",Geral!AK$2:AK1002,A11)+COUNTIFS(Geral!AJ$2:AJ1002,"Sim",Geral!AL$2:AL1002,A11)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="17">
@@ -18501,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A12)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A12)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1003,"Sim",Geral!AK$2:AK1003,A12)+COUNTIFS(Geral!AJ$2:AJ1003,"Sim",Geral!AL$2:AL1003,A12)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="17">
@@ -18626,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A13)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A13)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1004,"Sim",Geral!AK$2:AK1004,A13)+COUNTIFS(Geral!AJ$2:AJ1004,"Sim",Geral!AL$2:AL1004,A13)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="17">
@@ -18751,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A14)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A14)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1005,"Sim",Geral!AK$2:AK1005,A14)+COUNTIFS(Geral!AJ$2:AJ1005,"Sim",Geral!AL$2:AL1005,A14)</f>
         <v>0</v>
       </c>
       <c r="AA14" s="17">
@@ -18876,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A15)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A15)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1006,"Sim",Geral!AK$2:AK1006,A15)+COUNTIFS(Geral!AJ$2:AJ1006,"Sim",Geral!AL$2:AL1006,A15)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="17">
@@ -19001,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A16)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A16)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1007,"Sim",Geral!AK$2:AK1007,A16)+COUNTIFS(Geral!AJ$2:AJ1007,"Sim",Geral!AL$2:AL1007,A16)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="17">
@@ -19126,7 +19137,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A17)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A17)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1008,"Sim",Geral!AK$2:AK1008,A17)+COUNTIFS(Geral!AJ$2:AJ1008,"Sim",Geral!AL$2:AL1008,A17)</f>
         <v>0</v>
       </c>
       <c r="AA17" s="17">
@@ -19251,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A18)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A18)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1009,"Sim",Geral!AK$2:AK1009,A18)+COUNTIFS(Geral!AJ$2:AJ1009,"Sim",Geral!AL$2:AL1009,A18)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="17">
@@ -19376,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A19)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A19)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1010,"Sim",Geral!AK$2:AK1010,A19)+COUNTIFS(Geral!AJ$2:AJ1010,"Sim",Geral!AL$2:AL1010,A19)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="17">
@@ -19501,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A20)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A20)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1011,"Sim",Geral!AK$2:AK1011,A20)+COUNTIFS(Geral!AJ$2:AJ1011,"Sim",Geral!AL$2:AL1011,A20)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="17">
@@ -19626,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A21)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A21)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1012,"Sim",Geral!AK$2:AK1012,A21)+COUNTIFS(Geral!AJ$2:AJ1012,"Sim",Geral!AL$2:AL1012,A21)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="17">
@@ -19751,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A22)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A22)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1013,"Sim",Geral!AK$2:AK1013,A22)+COUNTIFS(Geral!AJ$2:AJ1013,"Sim",Geral!AL$2:AL1013,A22)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="17">
@@ -19876,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A23)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A23)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1014,"Sim",Geral!AK$2:AK1014,A23)+COUNTIFS(Geral!AJ$2:AJ1014,"Sim",Geral!AL$2:AL1014,A23)</f>
         <v>0</v>
       </c>
       <c r="AA23" s="17">
@@ -20001,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A24)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A24)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1015,"Sim",Geral!AK$2:AK1015,A24)+COUNTIFS(Geral!AJ$2:AJ1015,"Sim",Geral!AL$2:AL1015,A24)</f>
         <v>0</v>
       </c>
       <c r="AA24" s="17">
@@ -20126,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A25)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A25)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1016,"Sim",Geral!AK$2:AK1016,A25)+COUNTIFS(Geral!AJ$2:AJ1016,"Sim",Geral!AL$2:AL1016,A25)</f>
         <v>0</v>
       </c>
       <c r="AA25" s="17">
@@ -20251,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A26)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A26)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1017,"Sim",Geral!AK$2:AK1017,A26)+COUNTIFS(Geral!AJ$2:AJ1017,"Sim",Geral!AL$2:AL1017,A26)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="17">
@@ -20376,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A27)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A27)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1018,"Sim",Geral!AK$2:AK1018,A27)+COUNTIFS(Geral!AJ$2:AJ1018,"Sim",Geral!AL$2:AL1018,A27)</f>
         <v>0</v>
       </c>
       <c r="AA27" s="17">
@@ -20501,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A28)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A28)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1019,"Sim",Geral!AK$2:AK1019,A28)+COUNTIFS(Geral!AJ$2:AJ1019,"Sim",Geral!AL$2:AL1019,A28)</f>
         <v>0</v>
       </c>
       <c r="AA28" s="17">
@@ -20626,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A29)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A29)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1020,"Sim",Geral!AK$2:AK1020,A29)+COUNTIFS(Geral!AJ$2:AJ1020,"Sim",Geral!AL$2:AL1020,A29)</f>
         <v>0</v>
       </c>
       <c r="AA29" s="17">
@@ -20751,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A30)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A30)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1021,"Sim",Geral!AK$2:AK1021,A30)+COUNTIFS(Geral!AJ$2:AJ1021,"Sim",Geral!AL$2:AL1021,A30)</f>
         <v>0</v>
       </c>
       <c r="AA30" s="17">
@@ -20876,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A31)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A31)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1022,"Sim",Geral!AK$2:AK1022,A31)+COUNTIFS(Geral!AJ$2:AJ1022,"Sim",Geral!AL$2:AL1022,A31)</f>
         <v>1</v>
       </c>
       <c r="AA31" s="17">
@@ -21001,7 +21012,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A32)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A32)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1023,"Sim",Geral!AK$2:AK1023,A32)+COUNTIFS(Geral!AJ$2:AJ1023,"Sim",Geral!AL$2:AL1023,A32)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="17">
@@ -21126,7 +21137,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A33)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A33)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1024,"Sim",Geral!AK$2:AK1024,A33)+COUNTIFS(Geral!AJ$2:AJ1024,"Sim",Geral!AL$2:AL1024,A33)</f>
         <v>0</v>
       </c>
       <c r="AA33" s="17">
@@ -21251,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A34)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A34)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1025,"Sim",Geral!AK$2:AK1025,A34)+COUNTIFS(Geral!AJ$2:AJ1025,"Sim",Geral!AL$2:AL1025,A34)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="17">
@@ -21376,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A35)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A35)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1026,"Sim",Geral!AK$2:AK1026,A35)+COUNTIFS(Geral!AJ$2:AJ1026,"Sim",Geral!AL$2:AL1026,A35)</f>
         <v>0</v>
       </c>
       <c r="AA35" s="17">
@@ -21501,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A36)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A36)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1027,"Sim",Geral!AK$2:AK1027,A36)+COUNTIFS(Geral!AJ$2:AJ1027,"Sim",Geral!AL$2:AL1027,A36)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="17">
@@ -21626,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A37)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A37)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1028,"Sim",Geral!AK$2:AK1028,A37)+COUNTIFS(Geral!AJ$2:AJ1028,"Sim",Geral!AL$2:AL1028,A37)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="17">
@@ -21751,7 +21762,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A38)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A38)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1029,"Sim",Geral!AK$2:AK1029,A38)+COUNTIFS(Geral!AJ$2:AJ1029,"Sim",Geral!AL$2:AL1029,A38)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="17">
@@ -21876,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A39)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A39)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1030,"Sim",Geral!AK$2:AK1030,A39)+COUNTIFS(Geral!AJ$2:AJ1030,"Sim",Geral!AL$2:AL1030,A39)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="17">
@@ -22001,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A40)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A40)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1031,"Sim",Geral!AK$2:AK1031,A40)+COUNTIFS(Geral!AJ$2:AJ1031,"Sim",Geral!AL$2:AL1031,A40)</f>
         <v>0</v>
       </c>
       <c r="AA40" s="17">
@@ -22126,7 +22137,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A41)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A41)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1032,"Sim",Geral!AK$2:AK1032,A41)+COUNTIFS(Geral!AJ$2:AJ1032,"Sim",Geral!AL$2:AL1032,A41)</f>
         <v>0</v>
       </c>
       <c r="AA41" s="17">
@@ -22251,7 +22262,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A42)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A42)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1033,"Sim",Geral!AK$2:AK1033,A42)+COUNTIFS(Geral!AJ$2:AJ1033,"Sim",Geral!AL$2:AL1033,A42)</f>
         <v>0</v>
       </c>
       <c r="AA42" s="17">
@@ -22376,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A43)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A43)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1034,"Sim",Geral!AK$2:AK1034,A43)+COUNTIFS(Geral!AJ$2:AJ1034,"Sim",Geral!AL$2:AL1034,A43)</f>
         <v>0</v>
       </c>
       <c r="AA43" s="17">
@@ -22501,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A44)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A44)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1035,"Sim",Geral!AK$2:AK1035,A44)+COUNTIFS(Geral!AJ$2:AJ1035,"Sim",Geral!AL$2:AL1035,A44)</f>
         <v>0</v>
       </c>
       <c r="AA44" s="17">
@@ -22626,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A45)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A45)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1036,"Sim",Geral!AK$2:AK1036,A45)+COUNTIFS(Geral!AJ$2:AJ1036,"Sim",Geral!AL$2:AL1036,A45)</f>
         <v>0</v>
       </c>
       <c r="AA45" s="17">
@@ -22751,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A46)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A46)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1037,"Sim",Geral!AK$2:AK1037,A46)+COUNTIFS(Geral!AJ$2:AJ1037,"Sim",Geral!AL$2:AL1037,A46)</f>
         <v>0</v>
       </c>
       <c r="AA46" s="17">
@@ -22876,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A47)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A47)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1038,"Sim",Geral!AK$2:AK1038,A47)+COUNTIFS(Geral!AJ$2:AJ1038,"Sim",Geral!AL$2:AL1038,A47)</f>
         <v>0</v>
       </c>
       <c r="AA47" s="17">
@@ -23001,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A48)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A48)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1039,"Sim",Geral!AK$2:AK1039,A48)+COUNTIFS(Geral!AJ$2:AJ1039,"Sim",Geral!AL$2:AL1039,A48)</f>
         <v>0</v>
       </c>
       <c r="AA48" s="17">
@@ -23126,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A49)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A49)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1040,"Sim",Geral!AK$2:AK1040,A49)+COUNTIFS(Geral!AJ$2:AJ1040,"Sim",Geral!AL$2:AL1040,A49)</f>
         <v>0</v>
       </c>
       <c r="AA49" s="17">
@@ -23251,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A50)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A50)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1041,"Sim",Geral!AK$2:AK1041,A50)+COUNTIFS(Geral!AJ$2:AJ1041,"Sim",Geral!AL$2:AL1041,A50)</f>
         <v>0</v>
       </c>
       <c r="AA50" s="17">
@@ -23376,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A51)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A51)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1042,"Sim",Geral!AK$2:AK1042,A51)+COUNTIFS(Geral!AJ$2:AJ1042,"Sim",Geral!AL$2:AL1042,A51)</f>
         <v>0</v>
       </c>
       <c r="AA51" s="17">
@@ -23501,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A52)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A52)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1043,"Sim",Geral!AK$2:AK1043,A52)+COUNTIFS(Geral!AJ$2:AJ1043,"Sim",Geral!AL$2:AL1043,A52)</f>
         <v>0</v>
       </c>
       <c r="AA52" s="17">
@@ -23626,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A53)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A53)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1044,"Sim",Geral!AK$2:AK1044,A53)+COUNTIFS(Geral!AJ$2:AJ1044,"Sim",Geral!AL$2:AL1044,A53)</f>
         <v>0</v>
       </c>
       <c r="AA53" s="17">
@@ -23751,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A54)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A54)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1045,"Sim",Geral!AK$2:AK1045,A54)+COUNTIFS(Geral!AJ$2:AJ1045,"Sim",Geral!AL$2:AL1045,A54)</f>
         <v>0</v>
       </c>
       <c r="AA54" s="17">
@@ -23876,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A55)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A55)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1046,"Sim",Geral!AK$2:AK1046,A55)+COUNTIFS(Geral!AJ$2:AJ1046,"Sim",Geral!AL$2:AL1046,A55)</f>
         <v>0</v>
       </c>
       <c r="AA55" s="17">
@@ -24001,7 +24012,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A56)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A56)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1047,"Sim",Geral!AK$2:AK1047,A56)+COUNTIFS(Geral!AJ$2:AJ1047,"Sim",Geral!AL$2:AL1047,A56)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="17">
@@ -24126,8 +24137,8 @@
         <v>0</v>
       </c>
       <c r="Z57" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A57)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A57)</f>
-        <v>1</v>
+        <f>COUNTIFS(Geral!AJ$2:AJ1048,"Sim",Geral!AK$2:AK1048,A57)+COUNTIFS(Geral!AJ$2:AJ1048,"Sim",Geral!AL$2:AL1048,A57)</f>
+        <v>2</v>
       </c>
       <c r="AA57" s="17">
         <f>COUNTIFS(Geral!AX$8:AX993,"Sim",Geral!AY$8:AY993,A57)+COUNTIFS(Geral!AX$8:AX993,"Sim",Geral!AZ$8:AZ993,A57)</f>
@@ -24251,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A58)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A58)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1049,"Sim",Geral!AK$2:AK1049,A58)+COUNTIFS(Geral!AJ$2:AJ1049,"Sim",Geral!AL$2:AL1049,A58)</f>
         <v>0</v>
       </c>
       <c r="AA58" s="17">
@@ -24376,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A59)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A59)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1050,"Sim",Geral!AK$2:AK1050,A59)+COUNTIFS(Geral!AJ$2:AJ1050,"Sim",Geral!AL$2:AL1050,A59)</f>
         <v>0</v>
       </c>
       <c r="AA59" s="17">
@@ -24501,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A60)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A60)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1051,"Sim",Geral!AK$2:AK1051,A60)+COUNTIFS(Geral!AJ$2:AJ1051,"Sim",Geral!AL$2:AL1051,A60)</f>
         <v>0</v>
       </c>
       <c r="AA60" s="17">
@@ -24626,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A61)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A61)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1052,"Sim",Geral!AK$2:AK1052,A61)+COUNTIFS(Geral!AJ$2:AJ1052,"Sim",Geral!AL$2:AL1052,A61)</f>
         <v>1</v>
       </c>
       <c r="AA61" s="17">
@@ -24751,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A62)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A62)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1053,"Sim",Geral!AK$2:AK1053,A62)+COUNTIFS(Geral!AJ$2:AJ1053,"Sim",Geral!AL$2:AL1053,A62)</f>
         <v>0</v>
       </c>
       <c r="AA62" s="17">
@@ -24876,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A63)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A63)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1054,"Sim",Geral!AK$2:AK1054,A63)+COUNTIFS(Geral!AJ$2:AJ1054,"Sim",Geral!AL$2:AL1054,A63)</f>
         <v>0</v>
       </c>
       <c r="AA63" s="17">
@@ -25001,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A64)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A64)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1055,"Sim",Geral!AK$2:AK1055,A64)+COUNTIFS(Geral!AJ$2:AJ1055,"Sim",Geral!AL$2:AL1055,A64)</f>
         <v>0</v>
       </c>
       <c r="AA64" s="17">
@@ -25126,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A65)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A65)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1056,"Sim",Geral!AK$2:AK1056,A65)+COUNTIFS(Geral!AJ$2:AJ1056,"Sim",Geral!AL$2:AL1056,A65)</f>
         <v>0</v>
       </c>
       <c r="AA65" s="17">
@@ -25251,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A66)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A66)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1057,"Sim",Geral!AK$2:AK1057,A66)+COUNTIFS(Geral!AJ$2:AJ1057,"Sim",Geral!AL$2:AL1057,A66)</f>
         <v>0</v>
       </c>
       <c r="AA66" s="17">
@@ -25376,7 +25387,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A67)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A67)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1058,"Sim",Geral!AK$2:AK1058,A67)+COUNTIFS(Geral!AJ$2:AJ1058,"Sim",Geral!AL$2:AL1058,A67)</f>
         <v>0</v>
       </c>
       <c r="AA67" s="17">
@@ -25501,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A68)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A68)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1059,"Sim",Geral!AK$2:AK1059,A68)+COUNTIFS(Geral!AJ$2:AJ1059,"Sim",Geral!AL$2:AL1059,A68)</f>
         <v>0</v>
       </c>
       <c r="AA68" s="17">
@@ -25626,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A69)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A69)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1060,"Sim",Geral!AK$2:AK1060,A69)+COUNTIFS(Geral!AJ$2:AJ1060,"Sim",Geral!AL$2:AL1060,A69)</f>
         <v>0</v>
       </c>
       <c r="AA69" s="17">
@@ -25751,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A70)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A70)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1061,"Sim",Geral!AK$2:AK1061,A70)+COUNTIFS(Geral!AJ$2:AJ1061,"Sim",Geral!AL$2:AL1061,A70)</f>
         <v>0</v>
       </c>
       <c r="AA70" s="17">
@@ -25876,7 +25887,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A71)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A71)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1062,"Sim",Geral!AK$2:AK1062,A71)+COUNTIFS(Geral!AJ$2:AJ1062,"Sim",Geral!AL$2:AL1062,A71)</f>
         <v>0</v>
       </c>
       <c r="AA71" s="17">
@@ -26001,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A72)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A72)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1063,"Sim",Geral!AK$2:AK1063,A72)+COUNTIFS(Geral!AJ$2:AJ1063,"Sim",Geral!AL$2:AL1063,A72)</f>
         <v>0</v>
       </c>
       <c r="AA72" s="17">
@@ -26126,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A73)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A73)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1064,"Sim",Geral!AK$2:AK1064,A73)+COUNTIFS(Geral!AJ$2:AJ1064,"Sim",Geral!AL$2:AL1064,A73)</f>
         <v>0</v>
       </c>
       <c r="AA73" s="17">
@@ -26251,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A74)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A74)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1065,"Sim",Geral!AK$2:AK1065,A74)+COUNTIFS(Geral!AJ$2:AJ1065,"Sim",Geral!AL$2:AL1065,A74)</f>
         <v>0</v>
       </c>
       <c r="AA74" s="17">
@@ -26376,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A75)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A75)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1066,"Sim",Geral!AK$2:AK1066,A75)+COUNTIFS(Geral!AJ$2:AJ1066,"Sim",Geral!AL$2:AL1066,A75)</f>
         <v>0</v>
       </c>
       <c r="AA75" s="17">
@@ -26501,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A76)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A76)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1067,"Sim",Geral!AK$2:AK1067,A76)+COUNTIFS(Geral!AJ$2:AJ1067,"Sim",Geral!AL$2:AL1067,A76)</f>
         <v>0</v>
       </c>
       <c r="AA76" s="17">
@@ -26626,7 +26637,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A77)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A77)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1068,"Sim",Geral!AK$2:AK1068,A77)+COUNTIFS(Geral!AJ$2:AJ1068,"Sim",Geral!AL$2:AL1068,A77)</f>
         <v>0</v>
       </c>
       <c r="AA77" s="17">
@@ -26751,7 +26762,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A78)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A78)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1069,"Sim",Geral!AK$2:AK1069,A78)+COUNTIFS(Geral!AJ$2:AJ1069,"Sim",Geral!AL$2:AL1069,A78)</f>
         <v>0</v>
       </c>
       <c r="AA78" s="17">
@@ -26876,7 +26887,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A79)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A79)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1070,"Sim",Geral!AK$2:AK1070,A79)+COUNTIFS(Geral!AJ$2:AJ1070,"Sim",Geral!AL$2:AL1070,A79)</f>
         <v>0</v>
       </c>
       <c r="AA79" s="17">
@@ -27001,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A80)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A80)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1071,"Sim",Geral!AK$2:AK1071,A80)+COUNTIFS(Geral!AJ$2:AJ1071,"Sim",Geral!AL$2:AL1071,A80)</f>
         <v>0</v>
       </c>
       <c r="AA80" s="17">
@@ -27126,7 +27137,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A81)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A81)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1072,"Sim",Geral!AK$2:AK1072,A81)+COUNTIFS(Geral!AJ$2:AJ1072,"Sim",Geral!AL$2:AL1072,A81)</f>
         <v>0</v>
       </c>
       <c r="AA81" s="17">
@@ -27251,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A82)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A82)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1073,"Sim",Geral!AK$2:AK1073,A82)+COUNTIFS(Geral!AJ$2:AJ1073,"Sim",Geral!AL$2:AL1073,A82)</f>
         <v>0</v>
       </c>
       <c r="AA82" s="17">
@@ -27376,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A83)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A83)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1074,"Sim",Geral!AK$2:AK1074,A83)+COUNTIFS(Geral!AJ$2:AJ1074,"Sim",Geral!AL$2:AL1074,A83)</f>
         <v>0</v>
       </c>
       <c r="AA83" s="17">
@@ -27501,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A84)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A84)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1075,"Sim",Geral!AK$2:AK1075,A84)+COUNTIFS(Geral!AJ$2:AJ1075,"Sim",Geral!AL$2:AL1075,A84)</f>
         <v>0</v>
       </c>
       <c r="AA84" s="17">
@@ -27626,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A85)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A85)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1076,"Sim",Geral!AK$2:AK1076,A85)+COUNTIFS(Geral!AJ$2:AJ1076,"Sim",Geral!AL$2:AL1076,A85)</f>
         <v>0</v>
       </c>
       <c r="AA85" s="17">
@@ -27751,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A86)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A86)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1077,"Sim",Geral!AK$2:AK1077,A86)+COUNTIFS(Geral!AJ$2:AJ1077,"Sim",Geral!AL$2:AL1077,A86)</f>
         <v>0</v>
       </c>
       <c r="AA86" s="17">
@@ -27876,7 +27887,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A87)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A87)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1078,"Sim",Geral!AK$2:AK1078,A87)+COUNTIFS(Geral!AJ$2:AJ1078,"Sim",Geral!AL$2:AL1078,A87)</f>
         <v>0</v>
       </c>
       <c r="AA87" s="17">
@@ -28001,7 +28012,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A88)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A88)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1079,"Sim",Geral!AK$2:AK1079,A88)+COUNTIFS(Geral!AJ$2:AJ1079,"Sim",Geral!AL$2:AL1079,A88)</f>
         <v>0</v>
       </c>
       <c r="AA88" s="17">
@@ -28126,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A89)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A89)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1080,"Sim",Geral!AK$2:AK1080,A89)+COUNTIFS(Geral!AJ$2:AJ1080,"Sim",Geral!AL$2:AL1080,A89)</f>
         <v>0</v>
       </c>
       <c r="AA89" s="17">
@@ -28251,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A90)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A90)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1081,"Sim",Geral!AK$2:AK1081,A90)+COUNTIFS(Geral!AJ$2:AJ1081,"Sim",Geral!AL$2:AL1081,A90)</f>
         <v>0</v>
       </c>
       <c r="AA90" s="17">
@@ -28376,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A91)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A91)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1082,"Sim",Geral!AK$2:AK1082,A91)+COUNTIFS(Geral!AJ$2:AJ1082,"Sim",Geral!AL$2:AL1082,A91)</f>
         <v>0</v>
       </c>
       <c r="AA91" s="17">
@@ -28501,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A92)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A92)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1083,"Sim",Geral!AK$2:AK1083,A92)+COUNTIFS(Geral!AJ$2:AJ1083,"Sim",Geral!AL$2:AL1083,A92)</f>
         <v>0</v>
       </c>
       <c r="AA92" s="17">
@@ -28626,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A93)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A93)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1084,"Sim",Geral!AK$2:AK1084,A93)+COUNTIFS(Geral!AJ$2:AJ1084,"Sim",Geral!AL$2:AL1084,A93)</f>
         <v>0</v>
       </c>
       <c r="AA93" s="17">
@@ -28751,7 +28762,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A94)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A94)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1085,"Sim",Geral!AK$2:AK1085,A94)+COUNTIFS(Geral!AJ$2:AJ1085,"Sim",Geral!AL$2:AL1085,A94)</f>
         <v>0</v>
       </c>
       <c r="AA94" s="17">
@@ -28876,7 +28887,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A95)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A95)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1086,"Sim",Geral!AK$2:AK1086,A95)+COUNTIFS(Geral!AJ$2:AJ1086,"Sim",Geral!AL$2:AL1086,A95)</f>
         <v>0</v>
       </c>
       <c r="AA95" s="17">
@@ -29001,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A96)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A96)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1087,"Sim",Geral!AK$2:AK1087,A96)+COUNTIFS(Geral!AJ$2:AJ1087,"Sim",Geral!AL$2:AL1087,A96)</f>
         <v>0</v>
       </c>
       <c r="AA96" s="17">
@@ -29126,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A97)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A97)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1088,"Sim",Geral!AK$2:AK1088,A97)+COUNTIFS(Geral!AJ$2:AJ1088,"Sim",Geral!AL$2:AL1088,A97)</f>
         <v>0</v>
       </c>
       <c r="AA97" s="17">
@@ -29251,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A98)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A98)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1089,"Sim",Geral!AK$2:AK1089,A98)+COUNTIFS(Geral!AJ$2:AJ1089,"Sim",Geral!AL$2:AL1089,A98)</f>
         <v>0</v>
       </c>
       <c r="AA98" s="17">
@@ -29376,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A99)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A99)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1090,"Sim",Geral!AK$2:AK1090,A99)+COUNTIFS(Geral!AJ$2:AJ1090,"Sim",Geral!AL$2:AL1090,A99)</f>
         <v>2</v>
       </c>
       <c r="AA99" s="17">
@@ -29501,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A100)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A100)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1091,"Sim",Geral!AK$2:AK1091,A100)+COUNTIFS(Geral!AJ$2:AJ1091,"Sim",Geral!AL$2:AL1091,A100)</f>
         <v>0</v>
       </c>
       <c r="AA100" s="17">
@@ -29626,7 +29637,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="17">
-        <f>COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AK$8:AK993,A101)+COUNTIFS(Geral!AJ$8:AJ993,"Sim",Geral!AL$8:AL993,A101)</f>
+        <f>COUNTIFS(Geral!AJ$2:AJ1092,"Sim",Geral!AK$2:AK1092,A101)+COUNTIFS(Geral!AJ$2:AJ1092,"Sim",Geral!AL$2:AL1092,A101)</f>
         <v>2</v>
       </c>
       <c r="AA101" s="17">

--- a/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
+++ b/dados/Jogos XLSX/2023 CBFA - Capitains vs Tigres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\StatsTigres\dados\Jogos XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBF136-8D49-4EC1-84FA-5F4C7C9FEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49BE73-A4BE-4935-A90C-1F0A2038C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="106">
   <si>
     <t>Equipe</t>
   </si>
@@ -354,6 +354,9 @@
   <si>
     <t>XP acertado</t>
   </si>
+  <si>
+    <t>2-pt</t>
+  </si>
 </sst>
 </file>
 
@@ -649,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,6 +764,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:BD993"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1313,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34" t="str">
-        <f t="shared" ref="N3:N44" si="0">IF(E3=3,"Sim","")</f>
+        <f t="shared" ref="N3:N47" si="0">IF(E3=3,"Sim","")</f>
         <v/>
       </c>
       <c r="O3" s="34"/>
@@ -1621,7 +1651,9 @@
         <v/>
       </c>
       <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="P7" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="Q7" s="34"/>
       <c r="R7" s="35" t="s">
         <v>65</v>
@@ -4787,1532 +4819,2199 @@
       <c r="BD44" s="37"/>
     </row>
     <row r="45" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
+      <c r="A45" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="32">
+        <v>4</v>
+      </c>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32">
+        <v>2</v>
+      </c>
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
+        <v>10</v>
+      </c>
+      <c r="G45" s="32">
+        <v>20</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S45" s="35">
+        <v>11</v>
+      </c>
+      <c r="T45" s="35">
+        <v>11</v>
+      </c>
+      <c r="U45" s="35">
+        <v>21</v>
+      </c>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
+      <c r="AL45" s="37"/>
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+      <c r="AO45" s="37"/>
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="37"/>
+      <c r="AR45" s="37"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="37"/>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="37"/>
+      <c r="BC45" s="37"/>
+      <c r="BD45" s="37"/>
     </row>
     <row r="46" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AP46" s="2"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
+      <c r="A46" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="32">
+        <v>4</v>
+      </c>
+      <c r="C46" s="32">
+        <v>2</v>
+      </c>
+      <c r="D46" s="32">
+        <v>2</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32">
+        <v>10</v>
+      </c>
+      <c r="G46" s="32">
+        <v>24</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="33">
+        <v>5</v>
+      </c>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="37"/>
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
     </row>
     <row r="47" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
+      <c r="A47" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="32">
+        <v>4</v>
+      </c>
+      <c r="C47" s="32">
+        <v>3</v>
+      </c>
+      <c r="D47" s="32">
+        <v>2</v>
+      </c>
+      <c r="E47" s="32">
+        <v>1</v>
+      </c>
+      <c r="F47" s="32">
+        <v>5</v>
+      </c>
+      <c r="G47" s="32">
+        <v>19</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" s="35">
+        <v>11</v>
+      </c>
+      <c r="T47" s="35">
+        <v>81</v>
+      </c>
+      <c r="U47" s="35">
+        <v>19</v>
+      </c>
+      <c r="V47" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="36"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37"/>
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+      <c r="AO47" s="37"/>
+      <c r="AP47" s="37"/>
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="37"/>
+      <c r="AY47" s="37"/>
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37"/>
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
     </row>
     <row r="48" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
+      <c r="A48" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="32">
+        <v>4</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32">
+        <v>2</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32">
+        <v>2</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="S48" s="35">
+        <v>11</v>
+      </c>
+      <c r="T48" s="35">
+        <v>84</v>
+      </c>
+      <c r="U48" s="35">
+        <v>2</v>
+      </c>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AM48" s="37"/>
+      <c r="AN48" s="37"/>
+      <c r="AO48" s="37"/>
+      <c r="AP48" s="37"/>
+      <c r="AQ48" s="37"/>
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="37"/>
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="37"/>
+      <c r="AW48" s="37"/>
+      <c r="AX48" s="37"/>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
     </row>
     <row r="49" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
+      <c r="A49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32">
+        <v>2</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32">
+        <v>25</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35">
+        <v>20</v>
+      </c>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="36"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36"/>
+      <c r="AI49" s="36"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="37"/>
+      <c r="AL49" s="37"/>
+      <c r="AM49" s="37"/>
+      <c r="AN49" s="37"/>
+      <c r="AO49" s="37"/>
+      <c r="AP49" s="37"/>
+      <c r="AQ49" s="37"/>
+      <c r="AR49" s="37"/>
+      <c r="AS49" s="37"/>
+      <c r="AT49" s="37"/>
+      <c r="AU49" s="37"/>
+      <c r="AV49" s="37"/>
+      <c r="AW49" s="37"/>
+      <c r="AX49" s="37"/>
+      <c r="AY49" s="37"/>
+      <c r="AZ49" s="37"/>
+      <c r="BA49" s="37"/>
+      <c r="BB49" s="37"/>
+      <c r="BC49" s="37"/>
+      <c r="BD49" s="37"/>
     </row>
     <row r="50" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
+      <c r="A50" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="32">
+        <v>5</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1</v>
+      </c>
+      <c r="D50" s="32">
+        <v>3</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="F50" s="32">
+        <v>10</v>
+      </c>
+      <c r="G50" s="32">
+        <v>36</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S50" s="35">
+        <v>11</v>
+      </c>
+      <c r="T50" s="35">
+        <v>31</v>
+      </c>
+      <c r="U50" s="35">
+        <v>1</v>
+      </c>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="36"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="36"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37"/>
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37"/>
+      <c r="AQ50" s="37"/>
+      <c r="AR50" s="37"/>
+      <c r="AS50" s="37"/>
+      <c r="AT50" s="37"/>
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37"/>
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
     </row>
     <row r="51" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
+      <c r="A51" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="32">
+        <v>5</v>
+      </c>
+      <c r="C51" s="32">
+        <v>2</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3</v>
+      </c>
+      <c r="E51" s="32">
+        <v>2</v>
+      </c>
+      <c r="F51" s="32">
+        <v>9</v>
+      </c>
+      <c r="G51" s="32">
+        <v>37</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S51" s="35">
+        <v>11</v>
+      </c>
+      <c r="T51" s="35">
+        <v>87</v>
+      </c>
+      <c r="U51" s="35">
+        <v>13</v>
+      </c>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="37"/>
+      <c r="AK51" s="37"/>
+      <c r="AL51" s="37"/>
+      <c r="AM51" s="37"/>
+      <c r="AN51" s="37"/>
+      <c r="AO51" s="37"/>
+      <c r="AP51" s="37"/>
+      <c r="AQ51" s="37"/>
+      <c r="AR51" s="37"/>
+      <c r="AS51" s="37"/>
+      <c r="AT51" s="37"/>
+      <c r="AU51" s="37"/>
+      <c r="AV51" s="37"/>
+      <c r="AW51" s="37"/>
+      <c r="AX51" s="37"/>
+      <c r="AY51" s="37"/>
+      <c r="AZ51" s="37"/>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="37"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="37"/>
     </row>
     <row r="52" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
-      <c r="BD52" s="2"/>
+      <c r="A52" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="32">
+        <v>5</v>
+      </c>
+      <c r="C52" s="32">
+        <v>3</v>
+      </c>
+      <c r="D52" s="32">
+        <v>3</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="F52" s="32">
+        <v>10</v>
+      </c>
+      <c r="G52" s="32">
+        <v>30</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S52" s="35">
+        <v>11</v>
+      </c>
+      <c r="T52" s="35">
+        <v>31</v>
+      </c>
+      <c r="U52" s="35">
+        <v>5</v>
+      </c>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="36"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="36"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="36"/>
+      <c r="AJ52" s="37"/>
+      <c r="AK52" s="37"/>
+      <c r="AL52" s="37"/>
+      <c r="AM52" s="37"/>
+      <c r="AN52" s="37"/>
+      <c r="AO52" s="37"/>
+      <c r="AP52" s="37"/>
+      <c r="AQ52" s="37"/>
+      <c r="AR52" s="37"/>
+      <c r="AS52" s="37"/>
+      <c r="AT52" s="37"/>
+      <c r="AU52" s="37"/>
+      <c r="AV52" s="37"/>
+      <c r="AW52" s="37"/>
+      <c r="AX52" s="37"/>
+      <c r="AY52" s="37"/>
+      <c r="AZ52" s="37"/>
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="37"/>
+      <c r="BC52" s="37"/>
+      <c r="BD52" s="37"/>
     </row>
     <row r="53" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
+      <c r="A53" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="32">
+        <v>5</v>
+      </c>
+      <c r="C53" s="32">
+        <v>4</v>
+      </c>
+      <c r="D53" s="32">
+        <v>3</v>
+      </c>
+      <c r="E53" s="32">
+        <v>2</v>
+      </c>
+      <c r="F53" s="32">
+        <v>5</v>
+      </c>
+      <c r="G53" s="32">
+        <v>25</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S53" s="35">
+        <v>11</v>
+      </c>
+      <c r="T53" s="35">
+        <v>84</v>
+      </c>
+      <c r="U53" s="35">
+        <v>8</v>
+      </c>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="36"/>
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="36"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="37"/>
+      <c r="AL53" s="37"/>
+      <c r="AM53" s="37"/>
+      <c r="AN53" s="37"/>
+      <c r="AO53" s="37"/>
+      <c r="AP53" s="37"/>
+      <c r="AQ53" s="37"/>
+      <c r="AR53" s="37"/>
+      <c r="AS53" s="37"/>
+      <c r="AT53" s="37"/>
+      <c r="AU53" s="37"/>
+      <c r="AV53" s="37"/>
+      <c r="AW53" s="37"/>
+      <c r="AX53" s="37"/>
+      <c r="AY53" s="37"/>
+      <c r="AZ53" s="37"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="37"/>
     </row>
     <row r="54" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
+      <c r="A54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="32">
+        <v>5</v>
+      </c>
+      <c r="C54" s="32">
+        <v>5</v>
+      </c>
+      <c r="D54" s="32">
+        <v>3</v>
+      </c>
+      <c r="E54" s="32">
+        <v>1</v>
+      </c>
+      <c r="F54" s="32">
+        <v>10</v>
+      </c>
+      <c r="G54" s="32">
+        <v>17</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S54" s="35">
+        <v>11</v>
+      </c>
+      <c r="T54" s="35">
+        <v>31</v>
+      </c>
+      <c r="U54" s="35">
+        <v>1</v>
+      </c>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="36"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="36"/>
+      <c r="AJ54" s="37"/>
+      <c r="AK54" s="37"/>
+      <c r="AL54" s="37"/>
+      <c r="AM54" s="37"/>
+      <c r="AN54" s="37"/>
+      <c r="AO54" s="37"/>
+      <c r="AP54" s="37"/>
+      <c r="AQ54" s="37"/>
+      <c r="AR54" s="37"/>
+      <c r="AS54" s="37"/>
+      <c r="AT54" s="37"/>
+      <c r="AU54" s="37"/>
+      <c r="AV54" s="37"/>
+      <c r="AW54" s="37"/>
+      <c r="AX54" s="37"/>
+      <c r="AY54" s="37"/>
+      <c r="AZ54" s="37"/>
+      <c r="BA54" s="37"/>
+      <c r="BB54" s="37"/>
+      <c r="BC54" s="37"/>
+      <c r="BD54" s="37"/>
     </row>
     <row r="55" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AP55" s="2"/>
-      <c r="AQ55" s="2"/>
-      <c r="AR55" s="2"/>
-      <c r="AS55" s="2"/>
-      <c r="AT55" s="2"/>
-      <c r="AU55" s="2"/>
-      <c r="AV55" s="2"/>
-      <c r="AW55" s="2"/>
-      <c r="AX55" s="2"/>
-      <c r="AY55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
-      <c r="BD55" s="2"/>
+      <c r="A55" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="32">
+        <v>5</v>
+      </c>
+      <c r="C55" s="32">
+        <v>6</v>
+      </c>
+      <c r="D55" s="32">
+        <v>3</v>
+      </c>
+      <c r="E55" s="32">
+        <v>2</v>
+      </c>
+      <c r="F55" s="32">
+        <v>9</v>
+      </c>
+      <c r="G55" s="32">
+        <v>16</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S55" s="35">
+        <v>11</v>
+      </c>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
+      <c r="AH55" s="36"/>
+      <c r="AI55" s="36"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37"/>
+      <c r="AM55" s="37"/>
+      <c r="AN55" s="37"/>
+      <c r="AO55" s="37"/>
+      <c r="AP55" s="37"/>
+      <c r="AQ55" s="37"/>
+      <c r="AR55" s="37"/>
+      <c r="AS55" s="37"/>
+      <c r="AT55" s="37"/>
+      <c r="AU55" s="37"/>
+      <c r="AV55" s="37"/>
+      <c r="AW55" s="37"/>
+      <c r="AX55" s="37"/>
+      <c r="AY55" s="37"/>
+      <c r="AZ55" s="37"/>
+      <c r="BA55" s="37"/>
+      <c r="BB55" s="37"/>
+      <c r="BC55" s="37"/>
+      <c r="BD55" s="37"/>
     </row>
     <row r="56" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="2"/>
-      <c r="AQ56" s="2"/>
-      <c r="AR56" s="2"/>
-      <c r="AS56" s="2"/>
-      <c r="AT56" s="2"/>
-      <c r="AU56" s="2"/>
-      <c r="AV56" s="2"/>
-      <c r="AW56" s="2"/>
-      <c r="AX56" s="2"/>
-      <c r="AY56" s="2"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
-      <c r="BD56" s="2"/>
+      <c r="A56" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="32">
+        <v>5</v>
+      </c>
+      <c r="C56" s="32">
+        <v>7</v>
+      </c>
+      <c r="D56" s="32">
+        <v>3</v>
+      </c>
+      <c r="E56" s="32">
+        <v>3</v>
+      </c>
+      <c r="F56" s="32">
+        <v>9</v>
+      </c>
+      <c r="G56" s="32">
+        <v>16</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S56" s="35">
+        <v>11</v>
+      </c>
+      <c r="T56" s="35">
+        <v>31</v>
+      </c>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="36"/>
+      <c r="AD56" s="36"/>
+      <c r="AE56" s="36"/>
+      <c r="AF56" s="36"/>
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="37"/>
+      <c r="AK56" s="37"/>
+      <c r="AL56" s="37"/>
+      <c r="AM56" s="37"/>
+      <c r="AN56" s="37"/>
+      <c r="AO56" s="37"/>
+      <c r="AP56" s="37"/>
+      <c r="AQ56" s="37"/>
+      <c r="AR56" s="37"/>
+      <c r="AS56" s="37"/>
+      <c r="AT56" s="37"/>
+      <c r="AU56" s="37"/>
+      <c r="AV56" s="37"/>
+      <c r="AW56" s="37"/>
+      <c r="AX56" s="37"/>
+      <c r="AY56" s="37"/>
+      <c r="AZ56" s="37"/>
+      <c r="BA56" s="37"/>
+      <c r="BB56" s="37"/>
+      <c r="BC56" s="37"/>
+      <c r="BD56" s="37"/>
     </row>
     <row r="57" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
+      <c r="A57" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="32">
+        <v>5</v>
+      </c>
+      <c r="C57" s="32">
+        <v>8</v>
+      </c>
+      <c r="D57" s="32">
+        <v>3</v>
+      </c>
+      <c r="E57" s="32">
+        <v>4</v>
+      </c>
+      <c r="F57" s="32">
+        <v>9</v>
+      </c>
+      <c r="G57" s="32">
+        <v>16</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="R57" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S57" s="35">
+        <v>11</v>
+      </c>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="36"/>
+      <c r="AJ57" s="37"/>
+      <c r="AK57" s="37"/>
+      <c r="AL57" s="37"/>
+      <c r="AM57" s="37"/>
+      <c r="AN57" s="37"/>
+      <c r="AO57" s="37"/>
+      <c r="AP57" s="37"/>
+      <c r="AQ57" s="37"/>
+      <c r="AR57" s="37"/>
+      <c r="AS57" s="37"/>
+      <c r="AT57" s="37"/>
+      <c r="AU57" s="37"/>
+      <c r="AV57" s="37"/>
+      <c r="AW57" s="37"/>
+      <c r="AX57" s="37"/>
+      <c r="AY57" s="37"/>
+      <c r="AZ57" s="37"/>
+      <c r="BA57" s="37"/>
+      <c r="BB57" s="37"/>
+      <c r="BC57" s="37"/>
+      <c r="BD57" s="37"/>
     </row>
     <row r="58" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
-      <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
-      <c r="AW58" s="2"/>
-      <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
-      <c r="AZ58" s="2"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="2"/>
-      <c r="BC58" s="2"/>
-      <c r="BD58" s="2"/>
+      <c r="A58" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="32">
+        <v>5</v>
+      </c>
+      <c r="C58" s="32">
+        <v>1</v>
+      </c>
+      <c r="D58" s="32">
+        <v>3</v>
+      </c>
+      <c r="E58" s="32">
+        <v>1</v>
+      </c>
+      <c r="F58" s="32">
+        <v>10</v>
+      </c>
+      <c r="G58" s="32">
+        <v>16</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35">
+        <v>20</v>
+      </c>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="36"/>
+      <c r="AJ58" s="37"/>
+      <c r="AK58" s="37"/>
+      <c r="AL58" s="37"/>
+      <c r="AM58" s="37"/>
+      <c r="AN58" s="37"/>
+      <c r="AO58" s="37"/>
+      <c r="AP58" s="37"/>
+      <c r="AQ58" s="37"/>
+      <c r="AR58" s="37"/>
+      <c r="AS58" s="37"/>
+      <c r="AT58" s="37"/>
+      <c r="AU58" s="37"/>
+      <c r="AV58" s="37"/>
+      <c r="AW58" s="37"/>
+      <c r="AX58" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY58" s="37">
+        <v>10</v>
+      </c>
+      <c r="AZ58" s="37">
+        <v>36</v>
+      </c>
+      <c r="BA58" s="37"/>
+      <c r="BB58" s="37"/>
+      <c r="BC58" s="37"/>
+      <c r="BD58" s="37"/>
     </row>
     <row r="59" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="2"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="2"/>
-      <c r="AQ59" s="2"/>
-      <c r="AR59" s="2"/>
-      <c r="AS59" s="2"/>
-      <c r="AT59" s="2"/>
-      <c r="AU59" s="2"/>
-      <c r="AV59" s="2"/>
-      <c r="AW59" s="2"/>
-      <c r="AX59" s="2"/>
-      <c r="AY59" s="2"/>
-      <c r="AZ59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="2"/>
-      <c r="BC59" s="2"/>
-      <c r="BD59" s="2"/>
+      <c r="A59" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="32">
+        <v>5</v>
+      </c>
+      <c r="C59" s="32">
+        <v>2</v>
+      </c>
+      <c r="D59" s="32">
+        <v>3</v>
+      </c>
+      <c r="E59" s="32">
+        <v>1</v>
+      </c>
+      <c r="F59" s="32">
+        <v>10</v>
+      </c>
+      <c r="G59" s="32">
+        <v>36</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35">
+        <v>-1</v>
+      </c>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="36"/>
+      <c r="AD59" s="36"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36"/>
+      <c r="AI59" s="36"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37"/>
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37"/>
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37"/>
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37"/>
+      <c r="AX59" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY59" s="37">
+        <v>3</v>
+      </c>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37"/>
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
     </row>
     <row r="60" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
-      <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
-      <c r="AZ60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="2"/>
-      <c r="BD60" s="2"/>
+      <c r="A60" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="32">
+        <v>5</v>
+      </c>
+      <c r="C60" s="32">
+        <v>3</v>
+      </c>
+      <c r="D60" s="32">
+        <v>3</v>
+      </c>
+      <c r="E60" s="32">
+        <v>2</v>
+      </c>
+      <c r="F60" s="32">
+        <v>11</v>
+      </c>
+      <c r="G60" s="32">
+        <v>35</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" s="33">
+        <v>5</v>
+      </c>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="37"/>
+      <c r="AK60" s="37"/>
+      <c r="AL60" s="37"/>
+      <c r="AM60" s="37"/>
+      <c r="AN60" s="37"/>
+      <c r="AO60" s="37"/>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="37"/>
+      <c r="AR60" s="37"/>
+      <c r="AS60" s="37"/>
+      <c r="AT60" s="37"/>
+      <c r="AU60" s="37"/>
+      <c r="AV60" s="37"/>
+      <c r="AW60" s="37"/>
+      <c r="AX60" s="37"/>
+      <c r="AY60" s="37"/>
+      <c r="AZ60" s="37"/>
+      <c r="BA60" s="37"/>
+      <c r="BB60" s="37"/>
+      <c r="BC60" s="37"/>
+      <c r="BD60" s="37"/>
     </row>
     <row r="61" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="2"/>
-      <c r="AX61" s="2"/>
-      <c r="AY61" s="2"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="2"/>
-      <c r="BD61" s="2"/>
+      <c r="A61" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="32">
+        <v>5</v>
+      </c>
+      <c r="C61" s="32">
+        <v>4</v>
+      </c>
+      <c r="D61" s="32">
+        <v>3</v>
+      </c>
+      <c r="E61" s="32">
+        <v>2</v>
+      </c>
+      <c r="F61" s="32">
+        <v>16</v>
+      </c>
+      <c r="G61" s="32">
+        <v>30</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="33">
+        <v>5</v>
+      </c>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="36"/>
+      <c r="AD61" s="36"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
+      <c r="AJ61" s="37"/>
+      <c r="AK61" s="37"/>
+      <c r="AL61" s="37"/>
+      <c r="AM61" s="37"/>
+      <c r="AN61" s="37"/>
+      <c r="AO61" s="37"/>
+      <c r="AP61" s="37"/>
+      <c r="AQ61" s="37"/>
+      <c r="AR61" s="37"/>
+      <c r="AS61" s="37"/>
+      <c r="AT61" s="37"/>
+      <c r="AU61" s="37"/>
+      <c r="AV61" s="37"/>
+      <c r="AW61" s="37"/>
+      <c r="AX61" s="37"/>
+      <c r="AY61" s="37"/>
+      <c r="AZ61" s="37"/>
+      <c r="BA61" s="37"/>
+      <c r="BB61" s="37"/>
+      <c r="BC61" s="37"/>
+      <c r="BD61" s="37"/>
     </row>
     <row r="62" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62" s="2"/>
-      <c r="AN62" s="2"/>
-      <c r="AO62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="AQ62" s="2"/>
-      <c r="AR62" s="2"/>
-      <c r="AS62" s="2"/>
-      <c r="AT62" s="2"/>
-      <c r="AU62" s="2"/>
-      <c r="AV62" s="2"/>
-      <c r="AW62" s="2"/>
-      <c r="AX62" s="2"/>
-      <c r="AY62" s="2"/>
-      <c r="AZ62" s="2"/>
-      <c r="BA62" s="2"/>
-      <c r="BB62" s="2"/>
-      <c r="BC62" s="2"/>
-      <c r="BD62" s="2"/>
+      <c r="A62" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="32">
+        <v>5</v>
+      </c>
+      <c r="C62" s="32">
+        <v>5</v>
+      </c>
+      <c r="D62" s="32">
+        <v>3</v>
+      </c>
+      <c r="E62" s="32">
+        <v>2</v>
+      </c>
+      <c r="F62" s="32">
+        <v>11</v>
+      </c>
+      <c r="G62" s="32">
+        <v>35</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35">
+        <v>10</v>
+      </c>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="36"/>
+      <c r="AD62" s="36"/>
+      <c r="AE62" s="36"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="36"/>
+      <c r="AJ62" s="37"/>
+      <c r="AK62" s="37"/>
+      <c r="AL62" s="37"/>
+      <c r="AM62" s="37"/>
+      <c r="AN62" s="37"/>
+      <c r="AO62" s="37"/>
+      <c r="AP62" s="37"/>
+      <c r="AQ62" s="37"/>
+      <c r="AR62" s="37"/>
+      <c r="AS62" s="37"/>
+      <c r="AT62" s="37"/>
+      <c r="AU62" s="37"/>
+      <c r="AV62" s="37"/>
+      <c r="AW62" s="37"/>
+      <c r="AX62" s="37"/>
+      <c r="AY62" s="37"/>
+      <c r="AZ62" s="37"/>
+      <c r="BA62" s="37"/>
+      <c r="BB62" s="37"/>
+      <c r="BC62" s="37"/>
+      <c r="BD62" s="37"/>
     </row>
     <row r="63" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
-      <c r="AL63" s="2"/>
-      <c r="AM63" s="2"/>
-      <c r="AN63" s="2"/>
-      <c r="AO63" s="2"/>
-      <c r="AP63" s="2"/>
-      <c r="AQ63" s="2"/>
-      <c r="AR63" s="2"/>
-      <c r="AS63" s="2"/>
-      <c r="AT63" s="2"/>
-      <c r="AU63" s="2"/>
-      <c r="AV63" s="2"/>
-      <c r="AW63" s="2"/>
-      <c r="AX63" s="2"/>
-      <c r="AY63" s="2"/>
-      <c r="AZ63" s="2"/>
-      <c r="BA63" s="2"/>
-      <c r="BB63" s="2"/>
-      <c r="BC63" s="2"/>
-      <c r="BD63" s="2"/>
+      <c r="A63" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="32">
+        <v>5</v>
+      </c>
+      <c r="C63" s="32">
+        <v>6</v>
+      </c>
+      <c r="D63" s="32">
+        <v>3</v>
+      </c>
+      <c r="E63" s="32">
+        <v>3</v>
+      </c>
+      <c r="F63" s="32">
+        <v>1</v>
+      </c>
+      <c r="G63" s="32">
+        <v>35</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35">
+        <v>-6</v>
+      </c>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="36"/>
+      <c r="AD63" s="36"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="36"/>
+      <c r="AG63" s="36"/>
+      <c r="AH63" s="36"/>
+      <c r="AI63" s="36"/>
+      <c r="AJ63" s="37"/>
+      <c r="AK63" s="37"/>
+      <c r="AL63" s="37"/>
+      <c r="AM63" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN63" s="37">
+        <v>51</v>
+      </c>
+      <c r="AO63" s="37"/>
+      <c r="AP63" s="37"/>
+      <c r="AQ63" s="37"/>
+      <c r="AR63" s="37"/>
+      <c r="AS63" s="37"/>
+      <c r="AT63" s="37"/>
+      <c r="AU63" s="37"/>
+      <c r="AV63" s="37"/>
+      <c r="AW63" s="37"/>
+      <c r="AX63" s="37"/>
+      <c r="AY63" s="37"/>
+      <c r="AZ63" s="37"/>
+      <c r="BA63" s="37"/>
+      <c r="BB63" s="37"/>
+      <c r="BC63" s="37"/>
+      <c r="BD63" s="37"/>
     </row>
     <row r="64" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="2"/>
-      <c r="AO64" s="2"/>
-      <c r="AP64" s="2"/>
-      <c r="AQ64" s="2"/>
-      <c r="AR64" s="2"/>
-      <c r="AS64" s="2"/>
-      <c r="AT64" s="2"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-      <c r="AW64" s="2"/>
-      <c r="AX64" s="2"/>
-      <c r="AY64" s="2"/>
-      <c r="AZ64" s="2"/>
-      <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="2"/>
-      <c r="BD64" s="2"/>
+      <c r="A64" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="40">
+        <v>5</v>
+      </c>
+      <c r="C64" s="32">
+        <v>7</v>
+      </c>
+      <c r="D64" s="32">
+        <v>3</v>
+      </c>
+      <c r="E64" s="32">
+        <v>4</v>
+      </c>
+      <c r="F64" s="32">
+        <v>7</v>
+      </c>
+      <c r="G64" s="32">
+        <v>39</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="33">
+        <v>5</v>
+      </c>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
+      <c r="AJ64" s="37"/>
+      <c r="AK64" s="37"/>
+      <c r="AL64" s="37"/>
+      <c r="AM64" s="37"/>
+      <c r="AN64" s="37"/>
+      <c r="AO64" s="37"/>
+      <c r="AP64" s="37"/>
+      <c r="AQ64" s="37"/>
+      <c r="AR64" s="37"/>
+      <c r="AS64" s="37"/>
+      <c r="AT64" s="37"/>
+      <c r="AU64" s="37"/>
+      <c r="AV64" s="37"/>
+      <c r="AW64" s="37"/>
+      <c r="AX64" s="37"/>
+      <c r="AY64" s="37"/>
+      <c r="AZ64" s="37"/>
+      <c r="BA64" s="37"/>
+      <c r="BB64" s="37"/>
+      <c r="BC64" s="37"/>
+      <c r="BD64" s="37"/>
     </row>
     <row r="65" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="2"/>
-      <c r="AO65" s="2"/>
-      <c r="AP65" s="2"/>
-      <c r="AQ65" s="2"/>
-      <c r="AR65" s="2"/>
-      <c r="AS65" s="2"/>
-      <c r="AT65" s="2"/>
-      <c r="AU65" s="2"/>
-      <c r="AV65" s="2"/>
-      <c r="AW65" s="2"/>
-      <c r="AX65" s="2"/>
-      <c r="AY65" s="2"/>
-      <c r="AZ65" s="2"/>
-      <c r="BA65" s="2"/>
-      <c r="BB65" s="2"/>
-      <c r="BC65" s="2"/>
-      <c r="BD65" s="2"/>
+      <c r="A65" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="32">
+        <v>5</v>
+      </c>
+      <c r="C65" s="32">
+        <v>8</v>
+      </c>
+      <c r="D65" s="32">
+        <v>3</v>
+      </c>
+      <c r="E65" s="32">
+        <v>4</v>
+      </c>
+      <c r="F65" s="32">
+        <v>12</v>
+      </c>
+      <c r="G65" s="32">
+        <v>34</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35">
+        <v>16</v>
+      </c>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="36"/>
+      <c r="AD65" s="36"/>
+      <c r="AE65" s="36"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="36"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="37"/>
+      <c r="AL65" s="37"/>
+      <c r="AM65" s="37"/>
+      <c r="AN65" s="37"/>
+      <c r="AO65" s="37"/>
+      <c r="AP65" s="37"/>
+      <c r="AQ65" s="37"/>
+      <c r="AR65" s="37"/>
+      <c r="AS65" s="37"/>
+      <c r="AT65" s="37"/>
+      <c r="AU65" s="37"/>
+      <c r="AV65" s="37"/>
+      <c r="AW65" s="37"/>
+      <c r="AX65" s="37"/>
+      <c r="AY65" s="37"/>
+      <c r="AZ65" s="37"/>
+      <c r="BA65" s="37"/>
+      <c r="BB65" s="37"/>
+      <c r="BC65" s="37"/>
+      <c r="BD65" s="37"/>
     </row>
     <row r="66" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="2"/>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
-      <c r="AY66" s="2"/>
-      <c r="AZ66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
-      <c r="BD66" s="2"/>
+      <c r="A66" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="32">
+        <v>6</v>
+      </c>
+      <c r="C66" s="32">
+        <v>1</v>
+      </c>
+      <c r="D66" s="32">
+        <v>3</v>
+      </c>
+      <c r="E66" s="32">
+        <v>1</v>
+      </c>
+      <c r="F66" s="32">
+        <v>10</v>
+      </c>
+      <c r="G66" s="32">
+        <v>30</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="S66" s="35">
+        <v>11</v>
+      </c>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="36"/>
+      <c r="AD66" s="36"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="36"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="37"/>
+      <c r="AL66" s="37"/>
+      <c r="AM66" s="37"/>
+      <c r="AN66" s="37"/>
+      <c r="AO66" s="37"/>
+      <c r="AP66" s="37"/>
+      <c r="AQ66" s="37"/>
+      <c r="AR66" s="37"/>
+      <c r="AS66" s="37"/>
+      <c r="AT66" s="37"/>
+      <c r="AU66" s="37"/>
+      <c r="AV66" s="37"/>
+      <c r="AW66" s="37"/>
+      <c r="AX66" s="37"/>
+      <c r="AY66" s="37"/>
+      <c r="AZ66" s="37"/>
+      <c r="BA66" s="37"/>
+      <c r="BB66" s="37"/>
+      <c r="BC66" s="37"/>
+      <c r="BD66" s="37"/>
     </row>
     <row r="67" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="2"/>
-      <c r="AN67" s="2"/>
-      <c r="AO67" s="2"/>
-      <c r="AP67" s="2"/>
-      <c r="AQ67" s="2"/>
-      <c r="AR67" s="2"/>
-      <c r="AS67" s="2"/>
-      <c r="AT67" s="2"/>
-      <c r="AU67" s="2"/>
-      <c r="AV67" s="2"/>
-      <c r="AW67" s="2"/>
-      <c r="AX67" s="2"/>
-      <c r="AY67" s="2"/>
-      <c r="AZ67" s="2"/>
-      <c r="BA67" s="2"/>
-      <c r="BB67" s="2"/>
-      <c r="BC67" s="2"/>
-      <c r="BD67" s="2"/>
+      <c r="A67" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="32">
+        <v>6</v>
+      </c>
+      <c r="C67" s="32">
+        <v>2</v>
+      </c>
+      <c r="D67" s="32">
+        <v>3</v>
+      </c>
+      <c r="E67" s="32">
+        <v>2</v>
+      </c>
+      <c r="F67" s="32">
+        <v>10</v>
+      </c>
+      <c r="G67" s="32">
+        <v>30</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S67" s="35">
+        <v>11</v>
+      </c>
+      <c r="T67" s="35">
+        <v>11</v>
+      </c>
+      <c r="U67" s="35">
+        <v>4</v>
+      </c>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="36"/>
+      <c r="AD67" s="36"/>
+      <c r="AE67" s="36"/>
+      <c r="AF67" s="36"/>
+      <c r="AG67" s="36"/>
+      <c r="AH67" s="36"/>
+      <c r="AI67" s="36"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37"/>
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="37"/>
+      <c r="AP67" s="37"/>
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37"/>
+      <c r="AU67" s="37"/>
+      <c r="AV67" s="37"/>
+      <c r="AW67" s="37"/>
+      <c r="AX67" s="37"/>
+      <c r="AY67" s="37"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37"/>
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
     </row>
     <row r="68" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="2"/>
-      <c r="AO68" s="2"/>
-      <c r="AP68" s="2"/>
-      <c r="AQ68" s="2"/>
-      <c r="AR68" s="2"/>
-      <c r="AS68" s="2"/>
-      <c r="AT68" s="2"/>
-      <c r="AU68" s="2"/>
-      <c r="AV68" s="2"/>
-      <c r="AW68" s="2"/>
-      <c r="AX68" s="2"/>
-      <c r="AY68" s="2"/>
-      <c r="AZ68" s="2"/>
-      <c r="BA68" s="2"/>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="2"/>
-      <c r="BD68" s="2"/>
+      <c r="A68" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="32">
+        <v>6</v>
+      </c>
+      <c r="C68" s="32">
+        <v>3</v>
+      </c>
+      <c r="D68" s="32">
+        <v>3</v>
+      </c>
+      <c r="E68" s="32">
+        <v>3</v>
+      </c>
+      <c r="F68" s="32">
+        <v>6</v>
+      </c>
+      <c r="G68" s="32">
+        <v>34</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N68" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="S68" s="35">
+        <v>11</v>
+      </c>
+      <c r="T68" s="35">
+        <v>81</v>
+      </c>
+      <c r="U68" s="35">
+        <v>9</v>
+      </c>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="36"/>
+      <c r="AD68" s="36"/>
+      <c r="AE68" s="36"/>
+      <c r="AF68" s="36"/>
+      <c r="AG68" s="36"/>
+      <c r="AH68" s="36"/>
+      <c r="AI68" s="36"/>
+      <c r="AJ68" s="37"/>
+      <c r="AK68" s="37"/>
+      <c r="AL68" s="37"/>
+      <c r="AM68" s="37"/>
+      <c r="AN68" s="37"/>
+      <c r="AO68" s="37"/>
+      <c r="AP68" s="37"/>
+      <c r="AQ68" s="37"/>
+      <c r="AR68" s="37"/>
+      <c r="AS68" s="37"/>
+      <c r="AT68" s="37"/>
+      <c r="AU68" s="37"/>
+      <c r="AV68" s="37"/>
+      <c r="AW68" s="37"/>
+      <c r="AX68" s="37"/>
+      <c r="AY68" s="37"/>
+      <c r="AZ68" s="37"/>
+      <c r="BA68" s="37"/>
+      <c r="BB68" s="37"/>
+      <c r="BC68" s="37"/>
+      <c r="BD68" s="37"/>
     </row>
     <row r="69" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69" s="2"/>
-      <c r="AN69" s="2"/>
-      <c r="AO69" s="2"/>
-      <c r="AP69" s="2"/>
-      <c r="AQ69" s="2"/>
-      <c r="AR69" s="2"/>
-      <c r="AS69" s="2"/>
-      <c r="AT69" s="2"/>
-      <c r="AU69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AW69" s="2"/>
-      <c r="AX69" s="2"/>
-      <c r="AY69" s="2"/>
-      <c r="AZ69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
-      <c r="BC69" s="2"/>
-      <c r="BD69" s="2"/>
+      <c r="A69" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="32">
+        <v>6</v>
+      </c>
+      <c r="C69" s="32">
+        <v>4</v>
+      </c>
+      <c r="D69" s="32">
+        <v>4</v>
+      </c>
+      <c r="E69" s="32">
+        <v>1</v>
+      </c>
+      <c r="F69" s="32">
+        <v>10</v>
+      </c>
+      <c r="G69" s="32">
+        <v>35</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S69" s="35">
+        <v>11</v>
+      </c>
+      <c r="T69" s="35">
+        <v>32</v>
+      </c>
+      <c r="U69" s="35">
+        <v>5</v>
+      </c>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="36"/>
+      <c r="AH69" s="36"/>
+      <c r="AI69" s="36"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="37"/>
+      <c r="AL69" s="37"/>
+      <c r="AM69" s="37"/>
+      <c r="AN69" s="37"/>
+      <c r="AO69" s="37"/>
+      <c r="AP69" s="37"/>
+      <c r="AQ69" s="37"/>
+      <c r="AR69" s="37"/>
+      <c r="AS69" s="37"/>
+      <c r="AT69" s="37"/>
+      <c r="AU69" s="37"/>
+      <c r="AV69" s="37"/>
+      <c r="AW69" s="37"/>
+      <c r="AX69" s="37"/>
+      <c r="AY69" s="37"/>
+      <c r="AZ69" s="37"/>
+      <c r="BA69" s="37"/>
+      <c r="BB69" s="37"/>
+      <c r="BC69" s="37"/>
+      <c r="BD69" s="37"/>
     </row>
     <row r="70" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" s="2"/>
-      <c r="AN70" s="2"/>
-      <c r="AO70" s="2"/>
-      <c r="AP70" s="2"/>
-      <c r="AQ70" s="2"/>
-      <c r="AR70" s="2"/>
-      <c r="AS70" s="2"/>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
-      <c r="AY70" s="2"/>
-      <c r="AZ70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BD70" s="2"/>
+      <c r="A70" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="32">
+        <v>6</v>
+      </c>
+      <c r="C70" s="32">
+        <v>5</v>
+      </c>
+      <c r="D70" s="32">
+        <v>4</v>
+      </c>
+      <c r="E70" s="32">
+        <v>2</v>
+      </c>
+      <c r="F70" s="32">
+        <v>5</v>
+      </c>
+      <c r="G70" s="32">
+        <v>30</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="S70" s="35">
+        <v>11</v>
+      </c>
+      <c r="T70" s="35">
+        <v>11</v>
+      </c>
+      <c r="U70" s="35">
+        <v>6</v>
+      </c>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="36"/>
+      <c r="AG70" s="36"/>
+      <c r="AH70" s="36"/>
+      <c r="AI70" s="36"/>
+      <c r="AJ70" s="37"/>
+      <c r="AK70" s="37"/>
+      <c r="AL70" s="37"/>
+      <c r="AM70" s="37"/>
+      <c r="AN70" s="37"/>
+      <c r="AO70" s="37"/>
+      <c r="AP70" s="37"/>
+      <c r="AQ70" s="37"/>
+      <c r="AR70" s="37"/>
+      <c r="AS70" s="37"/>
+      <c r="AT70" s="37"/>
+      <c r="AU70" s="37"/>
+      <c r="AV70" s="37"/>
+      <c r="AW70" s="37"/>
+      <c r="AX70" s="37"/>
+      <c r="AY70" s="37"/>
+      <c r="AZ70" s="37"/>
+      <c r="BA70" s="37"/>
+      <c r="BB70" s="37"/>
+      <c r="BC70" s="37"/>
+      <c r="BD70" s="37"/>
     </row>
     <row r="71" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="A71" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2">
+        <v>24</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K71" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" s="2">
+        <v>5</v>
+      </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="R71" s="46" t="s">
+        <v>9</v>
+      </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -6353,24 +7052,52 @@
       <c r="BD71" s="2"/>
     </row>
     <row r="72" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="A72" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="2">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>19</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L72" s="2">
+        <v>5</v>
+      </c>
+      <c r="M72" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="R72" s="46" t="s">
+        <v>9</v>
+      </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -6411,14 +7138,30 @@
       <c r="BD72" s="2"/>
     </row>
     <row r="73" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="A73" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2">
+        <v>14</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -6428,13 +7171,19 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
+      <c r="R73" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" s="2">
+        <v>11</v>
+      </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
+      <c r="X73" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
@@ -6469,14 +7218,30 @@
       <c r="BD73" s="2"/>
     </row>
     <row r="74" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="A74" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2">
+        <v>14</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -6486,10 +7251,18 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
+      <c r="R74" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S74" s="2">
+        <v>11</v>
+      </c>
+      <c r="T74" s="2">
+        <v>31</v>
+      </c>
+      <c r="U74" s="2">
+        <v>4</v>
+      </c>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
@@ -6527,28 +7300,56 @@
       <c r="BD74" s="2"/>
     </row>
     <row r="75" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="A75" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2">
+        <v>10</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
+      <c r="R75" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" s="2">
+        <v>11</v>
+      </c>
+      <c r="T75" s="2">
+        <v>87</v>
+      </c>
+      <c r="U75" s="2">
+        <v>19</v>
+      </c>
+      <c r="V75" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
@@ -6585,14 +7386,24 @@
       <c r="BD75" s="2"/>
     </row>
     <row r="76" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="2">
+        <v>6</v>
+      </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="2">
+        <v>2</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -6602,10 +7413,18 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
+      <c r="R76" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="S76" s="2">
+        <v>11</v>
+      </c>
+      <c r="T76" s="2">
+        <v>31</v>
+      </c>
+      <c r="U76" s="2">
+        <v>2</v>
+      </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
@@ -6613,7 +7432,9 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
+      <c r="AC76" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
@@ -6643,14 +7464,20 @@
       <c r="BD76" s="2"/>
     </row>
     <row r="77" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="46" t="s">
+        <v>57</v>
+      </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="2">
+        <v>25</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -6660,10 +7487,14 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="R77" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
+      <c r="U77" s="2">
+        <v>20</v>
+      </c>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
@@ -6701,14 +7532,30 @@
       <c r="BD77" s="2"/>
     </row>
     <row r="78" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="A78" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2">
+        <v>35</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -6718,13 +7565,17 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="R78" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
+      <c r="X78" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
@@ -6759,14 +7610,30 @@
       <c r="BD78" s="2"/>
     </row>
     <row r="79" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="A79" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="2">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2">
+        <v>35</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -6776,10 +7643,14 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="R79" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
+      <c r="U79" s="2">
+        <v>-20</v>
+      </c>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
@@ -6797,8 +7668,12 @@
       <c r="AJ79" s="2"/>
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
-      <c r="AM79" s="2"/>
-      <c r="AN79" s="2"/>
+      <c r="AM79" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN79" s="2">
+        <v>3</v>
+      </c>
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="2"/>
@@ -6817,27 +7692,49 @@
       <c r="BD79" s="2"/>
     </row>
     <row r="80" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="A80" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
+        <v>30</v>
+      </c>
+      <c r="G80" s="2">
+        <v>15</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="R80" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
+      <c r="U80" s="2">
+        <v>-2</v>
+      </c>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
@@ -6855,8 +7752,12 @@
       <c r="AJ80" s="2"/>
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
-      <c r="AM80" s="2"/>
-      <c r="AN80" s="2"/>
+      <c r="AM80" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>29</v>
+      </c>
       <c r="AO80" s="2"/>
       <c r="AP80" s="2"/>
       <c r="AQ80" s="2"/>
@@ -6875,24 +7776,44 @@
       <c r="BD80" s="2"/>
     </row>
     <row r="81" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="A81" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="2">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>32</v>
+      </c>
+      <c r="G81" s="2">
+        <v>13</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+      <c r="R81" s="46" t="s">
+        <v>65</v>
+      </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -6933,14 +7854,30 @@
       <c r="BD81" s="2"/>
     </row>
     <row r="82" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="A82" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="2">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2">
+        <v>37</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -6950,10 +7887,18 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
+      <c r="R82" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S82" s="2">
+        <v>11</v>
+      </c>
+      <c r="T82" s="2">
+        <v>84</v>
+      </c>
+      <c r="U82" s="2">
+        <v>6</v>
+      </c>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
@@ -6991,14 +7936,30 @@
       <c r="BD82" s="2"/>
     </row>
     <row r="83" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="A83" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="2">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3</v>
+      </c>
+      <c r="G83" s="2">
+        <v>37</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -7008,10 +7969,18 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
+      <c r="R83" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S83" s="2">
+        <v>11</v>
+      </c>
+      <c r="T83" s="2">
+        <v>32</v>
+      </c>
+      <c r="U83" s="2">
+        <v>3</v>
+      </c>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
@@ -7049,14 +8018,30 @@
       <c r="BD83" s="2"/>
     </row>
     <row r="84" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="A84" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="2">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>34</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -7066,10 +8051,18 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
+      <c r="R84" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S84" s="2">
+        <v>11</v>
+      </c>
+      <c r="T84" s="2">
+        <v>32</v>
+      </c>
+      <c r="U84" s="2">
+        <v>5</v>
+      </c>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
@@ -7107,14 +8100,30 @@
       <c r="BD84" s="2"/>
     </row>
     <row r="85" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="A85" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2">
+        <v>29</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -7124,13 +8133,19 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
+      <c r="R85" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S85" s="2">
+        <v>11</v>
+      </c>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
+      <c r="X85" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
@@ -7165,14 +8180,30 @@
       <c r="BD85" s="2"/>
     </row>
     <row r="86" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="A86" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="2">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2">
+        <v>29</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -7182,10 +8213,18 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
+      <c r="R86" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S86" s="2">
+        <v>11</v>
+      </c>
+      <c r="T86" s="2">
+        <v>31</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
@@ -7223,27 +8262,55 @@
       <c r="BD86" s="2"/>
     </row>
     <row r="87" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="A87" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="2">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2">
+        <v>29</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="M87" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N87" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
+      <c r="R87" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="S87" s="2">
+        <v>11</v>
+      </c>
+      <c r="T87" s="2">
+        <v>11</v>
+      </c>
+      <c r="U87" s="2">
+        <v>15</v>
+      </c>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
@@ -7281,14 +8348,30 @@
       <c r="BD87" s="2"/>
     </row>
     <row r="88" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="A88" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="2">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2">
+        <v>14</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -7298,11 +8381,21 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
+      <c r="R88" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S88" s="2">
+        <v>11</v>
+      </c>
+      <c r="T88" s="2">
+        <v>14</v>
+      </c>
+      <c r="U88" s="2">
+        <v>14</v>
+      </c>
+      <c r="V88" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
@@ -7339,27 +8432,45 @@
       <c r="BD88" s="2"/>
     </row>
     <row r="89" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="2">
+        <v>7</v>
+      </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="G89" s="2">
+        <v>2</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="M89" s="48"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
+      <c r="R89" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="S89" s="2">
+        <v>11</v>
+      </c>
+      <c r="T89" s="2">
+        <v>84</v>
+      </c>
+      <c r="U89" s="2">
+        <v>2</v>
+      </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
@@ -7367,7 +8478,9 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
-      <c r="AC89" s="2"/>
+      <c r="AC89" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
@@ -7397,7 +8510,7 @@
       <c r="BD89" s="2"/>
     </row>
     <row r="90" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -17033,8 +18146,8 @@
   </sheetPr>
   <dimension ref="A1:AH999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z101" sqref="Z101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17631,11 +18744,11 @@
       </c>
       <c r="AA5" s="17">
         <f>COUNTIFS(Geral!AX$2:AX996,"Sim",Geral!AY$2:AY996,A5)+COUNTIFS(Geral!AX$2:AX996,"Sim",Geral!AZ$2:AZ996,A5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="17">
         <f>COUNTIFS(Geral!AM$2:AM996,"Sim",Geral!AN$2:AN996,A5)+COUNTIFS(Geral!AM$2:AM996,"Sim",Geral!AO$2:AO996,A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="18">
         <f>COUNTIFS(Geral!AP$2:AP996,"Sim",Geral!AQ$2:AQ996,A5)</f>
@@ -18506,7 +19619,7 @@
       </c>
       <c r="AA12" s="17">
         <f>COUNTIFS(Geral!AX$2:AX1003,"Sim",Geral!AY$2:AY1003,A12)+COUNTIFS(Geral!AX$2:AX1003,"Sim",Geral!AZ$2:AZ1003,A12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="17">
         <f>COUNTIFS(Geral!AM$2:AM1003,"Sim",Geral!AN$2:AN1003,A12)+COUNTIFS(Geral!AM$2:AM1003,"Sim",Geral!AO$2:AO1003,A12)</f>
@@ -18543,23 +19656,23 @@
       </c>
       <c r="B13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A13)-G13</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A13,Geral!X$2:X1004,"Sim")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E13" s="11">
         <f>SUMIFS(Geral!U$2:U1004,Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A13)</f>
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A13,Geral!V$2:V1004,"Sim")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Passe",Geral!A$2:A1004,"Tigres",Geral!S$2:S1004,A13,Geral!W$2:W1004,"Sim")</f>
@@ -18595,11 +19708,11 @@
       </c>
       <c r="O13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Corrida",Geral!A$2:A1004,"Tigres",Geral!T$2:T1004,A13)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" s="11">
         <f>SUMIFS(Geral!U$2:U1004,Geral!R$2:R1004,"Corrida",Geral!A$2:A1004,"Tigres",Geral!T$2:T1004,A13)</f>
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="11">
         <f>COUNTIFS(Geral!R$2:R1004,"Corrida",Geral!A$2:A1004,"Tigres",Geral!T$2:T1004,A13,Geral!V$2:V1004,"Sim")</f>
@@ -18950,11 +20063,11 @@
       </c>
       <c r="J16" s="12">
         <f>COUNTIFS(Geral!R$2:R1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!T$2:T1007,A16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="11">
         <f>COUNTIFS(Geral!R$2:R1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!T$2:T1007,A16,Geral!X$2:X1007,"Sim")</f>
@@ -18962,11 +20075,11 @@
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(Geral!U$2:U1007,Geral!R$2:R1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!T$2:T1007,A16)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N16" s="11">
         <f>COUNTIFS(Geral!R$2:R1007,"Passe",Geral!A$2:A1007,"Tigres",Geral!T$2:T1007,A16,Geral!V$2:V1007,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="11">
         <f>COUNTIFS(Geral!R$2:R1007,"Corrida",Geral!A$2:A1007,"Tigres",Geral!T$2:T1007,A16)</f>
@@ -20885,7 +21998,7 @@
       </c>
       <c r="AB31" s="17">
         <f>COUNTIFS(Geral!AM$2:AM1022,"Sim",Geral!AN$2:AN1022,A31)+COUNTIFS(Geral!AM$2:AM1022,"Sim",Geral!AO$2:AO1022,A31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="18">
         <f>COUNTIFS(Geral!AP$2:AP1022,"Sim",Geral!AQ$2:AQ1022,A31)</f>
@@ -21075,15 +22188,15 @@
       </c>
       <c r="J33" s="12">
         <f>COUNTIFS(Geral!R$2:R1024,"Passe",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="11">
         <f>COUNTIFS(Geral!R$2:R1024,"Passe",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33,Geral!X$2:X1024,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="11">
         <f>SUMIFS(Geral!U$2:U1024,Geral!R$2:R1024,"Passe",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33)</f>
@@ -21095,11 +22208,11 @@
       </c>
       <c r="O33" s="11">
         <f>COUNTIFS(Geral!R$2:R1024,"Corrida",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33" s="11">
         <f>SUMIFS(Geral!U$2:U1024,Geral!R$2:R1024,"Corrida",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="11">
         <f>COUNTIFS(Geral!R$2:R1024,"Corrida",Geral!A$2:A1024,"Tigres",Geral!T$2:T1024,A33,Geral!V$2:V1024,"Sim")</f>
@@ -21200,11 +22313,11 @@
       </c>
       <c r="J34" s="12">
         <f>COUNTIFS(Geral!R$2:R1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="11">
         <f>COUNTIFS(Geral!R$2:R1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34,Geral!X$2:X1025,"Sim")</f>
@@ -21212,7 +22325,7 @@
       </c>
       <c r="M34" s="11">
         <f>SUMIFS(Geral!U$2:U1025,Geral!R$2:R1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N34" s="11">
         <f>COUNTIFS(Geral!R$2:R1025,"Passe",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34,Geral!V$2:V1025,"Sim")</f>
@@ -21220,11 +22333,11 @@
       </c>
       <c r="O34" s="11">
         <f>COUNTIFS(Geral!R$2:R1025,"Corrida",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" s="11">
         <f>SUMIFS(Geral!U$2:U1025,Geral!R$2:R1025,"Corrida",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q34" s="11">
         <f>COUNTIFS(Geral!R$2:R1025,"Corrida",Geral!A$2:A1025,"Tigres",Geral!T$2:T1025,A34,Geral!V$2:V1025,"Sim")</f>
@@ -21756,7 +22869,7 @@
       </c>
       <c r="AA38" s="17">
         <f>COUNTIFS(Geral!AX$2:AX1029,"Sim",Geral!AY$2:AY1029,A38)+COUNTIFS(Geral!AX$2:AX1029,"Sim",Geral!AZ$2:AZ1029,A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="17">
         <f>COUNTIFS(Geral!AM$2:AM1029,"Sim",Geral!AN$2:AN1029,A38)+COUNTIFS(Geral!AM$2:AM1029,"Sim",Geral!AO$2:AO1029,A38)</f>
@@ -23635,7 +24748,7 @@
       </c>
       <c r="AB53" s="17">
         <f>COUNTIFS(Geral!AM$2:AM1044,"Sim",Geral!AN$2:AN1044,A53)+COUNTIFS(Geral!AM$2:AM1044,"Sim",Geral!AO$2:AO1044,A53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="18">
         <f>COUNTIFS(Geral!AP$2:AP1044,"Sim",Geral!AQ$2:AQ1044,A53)</f>
@@ -27325,11 +28438,11 @@
       </c>
       <c r="J83" s="12">
         <f>COUNTIFS(Geral!R$2:R1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!T$2:T1074,A83)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K83" s="11">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" s="11">
         <f>COUNTIFS(Geral!R$2:R1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!T$2:T1074,A83,Geral!X$2:X1074,"Sim")</f>
@@ -27337,11 +28450,11 @@
       </c>
       <c r="M83" s="11">
         <f>SUMIFS(Geral!U$2:U1074,Geral!R$2:R1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!T$2:T1074,A83)</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N83" s="11">
         <f>COUNTIFS(Geral!R$2:R1074,"Passe",Geral!A$2:A1074,"Tigres",Geral!T$2:T1074,A83,Geral!V$2:V1074,"Sim")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83" s="11">
         <f>COUNTIFS(Geral!R$2:R1074,"Corrida",Geral!A$2:A1074,"Tigres",Geral!T$2:T1074,A83)</f>
@@ -27700,11 +28813,11 @@
       </c>
       <c r="J86" s="12">
         <f>COUNTIFS(Geral!R$2:R1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!T$2:T1077,A86)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="11">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" s="11">
         <f>COUNTIFS(Geral!R$2:R1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!T$2:T1077,A86,Geral!X$2:X1077,"Sim")</f>
@@ -27712,7 +28825,7 @@
       </c>
       <c r="M86" s="11">
         <f>SUMIFS(Geral!U$2:U1077,Geral!R$2:R1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!T$2:T1077,A86)</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N86" s="11">
         <f>COUNTIFS(Geral!R$2:R1077,"Passe",Geral!A$2:A1077,"Tigres",Geral!T$2:T1077,A86,Geral!V$2:V1077,"Sim")</f>
@@ -28075,11 +29188,11 @@
       </c>
       <c r="J89" s="12">
         <f>COUNTIFS(Geral!R$2:R1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!T$2:T1080,A89)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" s="11">
         <f>COUNTIFS(Geral!R$2:R1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!T$2:T1080,A89,Geral!X$2:X1080,"Sim")</f>
@@ -28087,11 +29200,11 @@
       </c>
       <c r="M89" s="11">
         <f>SUMIFS(Geral!U$2:U1080,Geral!R$2:R1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!T$2:T1080,A89)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N89" s="11">
         <f>COUNTIFS(Geral!R$2:R1080,"Passe",Geral!A$2:A1080,"Tigres",Geral!T$2:T1080,A89,Geral!V$2:V1080,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="11">
         <f>COUNTIFS(Geral!R$2:R1080,"Corrida",Geral!A$2:A1080,"Tigres",Geral!T$2:T1080,A89)</f>
